--- a/timetableNov25.xlsx
+++ b/timetableNov25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\.vscode\project_tt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E43715-C5D0-41EA-923B-939420664712}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD89374E-1F5B-4634-A5E2-D91E3797CCFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1910,15 +1910,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1957,6 +1948,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2267,10 +2267,10 @@
   <dimension ref="A1:K602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B575" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B228" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B590" sqref="B590"/>
+      <selection pane="bottomRight" activeCell="V248" sqref="V248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2504,17 +2504,17 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="47"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -2695,17 +2695,17 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="33"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -2714,25 +2714,25 @@
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35" t="s">
+      <c r="D16" s="32"/>
+      <c r="E16" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35" t="s">
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2743,27 +2743,27 @@
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35" t="s">
+      <c r="I17" s="32"/>
+      <c r="J17" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2774,25 +2774,25 @@
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35" t="s">
+      <c r="D18" s="32"/>
+      <c r="E18" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35" t="s">
+      <c r="H18" s="33"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2803,27 +2803,27 @@
       <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="35" t="s">
+      <c r="H19" s="34"/>
+      <c r="I19" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="35" t="s">
+      <c r="K19" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2834,23 +2834,23 @@
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35" t="s">
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2861,38 +2861,38 @@
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="35" t="s">
+      <c r="I21" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="K21" s="35"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="33"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -3077,17 +3077,17 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="33"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="47"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
@@ -3256,17 +3256,17 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="33"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="47"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
@@ -3445,17 +3445,17 @@
       <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="31"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="33"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="47"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
@@ -3631,17 +3631,17 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="31"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="33"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="47"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -3650,23 +3650,23 @@
       <c r="B51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35" t="s">
+      <c r="D51" s="32"/>
+      <c r="E51" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="40" t="s">
+      <c r="F51" s="32"/>
+      <c r="G51" s="37" t="s">
         <v>466</v>
       </c>
-      <c r="H51" s="40" t="s">
+      <c r="H51" s="37" t="s">
         <v>467</v>
       </c>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35" t="s">
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3677,23 +3677,23 @@
       <c r="B52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35" t="s">
+      <c r="D52" s="32"/>
+      <c r="E52" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35" t="s">
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="I52" s="35"/>
-      <c r="J52" s="40" t="s">
+      <c r="I52" s="32"/>
+      <c r="J52" s="37" t="s">
         <v>468</v>
       </c>
-      <c r="K52" s="35" t="s">
+      <c r="K52" s="32" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3704,23 +3704,23 @@
       <c r="B53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35" t="s">
+      <c r="D53" s="32"/>
+      <c r="E53" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="40" t="s">
+      <c r="F53" s="37" t="s">
         <v>469</v>
       </c>
-      <c r="G53" s="35"/>
-      <c r="H53" s="40" t="s">
+      <c r="G53" s="32"/>
+      <c r="H53" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35" t="s">
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3731,23 +3731,23 @@
       <c r="B54" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="40" t="s">
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="F54" s="35" t="s">
+      <c r="F54" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35" t="s">
+      <c r="G54" s="32"/>
+      <c r="H54" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I54" s="35"/>
-      <c r="J54" s="40" t="s">
+      <c r="I54" s="32"/>
+      <c r="J54" s="37" t="s">
         <v>471</v>
       </c>
-      <c r="K54" s="35" t="s">
+      <c r="K54" s="32" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3758,23 +3758,23 @@
       <c r="B55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35" t="s">
+      <c r="D55" s="32"/>
+      <c r="E55" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F55" s="35" t="s">
+      <c r="F55" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="40" t="s">
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="37" t="s">
         <v>472</v>
       </c>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35" t="s">
+      <c r="J55" s="32"/>
+      <c r="K55" s="32" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3785,38 +3785,38 @@
       <c r="B56" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35" t="s">
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G56" s="35"/>
-      <c r="H56" s="40" t="s">
+      <c r="G56" s="32"/>
+      <c r="H56" s="37" t="s">
         <v>473</v>
       </c>
-      <c r="I56" s="35"/>
-      <c r="J56" s="40" t="s">
+      <c r="I56" s="32"/>
+      <c r="J56" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="K56" s="35" t="s">
+      <c r="K56" s="32" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="31"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="33"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="47"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
@@ -3995,17 +3995,17 @@
       <c r="K63" s="3"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="31"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="33"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="47"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
@@ -4180,17 +4180,17 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="31"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="33"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="47"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
@@ -4362,17 +4362,17 @@
       <c r="K77" s="3"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="31"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="33"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="47"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
@@ -4557,17 +4557,17 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="31"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
-      <c r="J85" s="32"/>
-      <c r="K85" s="33"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="46"/>
+      <c r="K85" s="47"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
@@ -4754,17 +4754,17 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="31"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32"/>
-      <c r="J92" s="32"/>
-      <c r="K92" s="33"/>
+      <c r="A92" s="45"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="47"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
@@ -4773,21 +4773,21 @@
       <c r="B93" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35" t="s">
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F93" s="35" t="s">
+      <c r="F93" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G93" s="35" t="s">
+      <c r="G93" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="35"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="32"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
@@ -4796,23 +4796,23 @@
       <c r="B94" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35" t="s">
+      <c r="C94" s="32"/>
+      <c r="D94" s="32" t="s">
         <v>458</v>
       </c>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35" t="s">
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="H94" s="35" t="s">
+      <c r="H94" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I94" s="35" t="s">
+      <c r="I94" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35" t="s">
+      <c r="J94" s="32"/>
+      <c r="K94" s="32" t="s">
         <v>460</v>
       </c>
     </row>
@@ -4823,27 +4823,27 @@
       <c r="B95" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35" t="s">
+      <c r="C95" s="32"/>
+      <c r="D95" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="E95" s="35" t="s">
+      <c r="E95" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="F95" s="35" t="s">
+      <c r="F95" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="G95" s="35" t="s">
+      <c r="G95" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35" t="s">
+      <c r="H95" s="32"/>
+      <c r="I95" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J95" s="35" t="s">
+      <c r="J95" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K95" s="40" t="s">
+      <c r="K95" s="37" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4854,23 +4854,23 @@
       <c r="B96" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35" t="s">
+      <c r="C96" s="32"/>
+      <c r="D96" s="32" t="s">
         <v>458</v>
       </c>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35" t="s">
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="H96" s="35" t="s">
+      <c r="H96" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I96" s="35"/>
-      <c r="J96" s="35" t="s">
+      <c r="I96" s="32"/>
+      <c r="J96" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K96" s="35" t="s">
+      <c r="K96" s="32" t="s">
         <v>460</v>
       </c>
     </row>
@@ -4881,21 +4881,21 @@
       <c r="B97" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35" t="s">
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G97" s="35" t="s">
+      <c r="G97" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35" t="s">
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K97" s="40" t="s">
+      <c r="K97" s="37" t="s">
         <v>476</v>
       </c>
     </row>
@@ -4906,40 +4906,40 @@
       <c r="B98" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35" t="s">
+      <c r="C98" s="32"/>
+      <c r="D98" s="32" t="s">
         <v>458</v>
       </c>
-      <c r="E98" s="35" t="s">
+      <c r="E98" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F98" s="35" t="s">
+      <c r="F98" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35" t="s">
+      <c r="G98" s="32"/>
+      <c r="H98" s="32" t="s">
         <v>390</v>
       </c>
-      <c r="I98" s="35" t="s">
+      <c r="I98" s="32" t="s">
         <v>390</v>
       </c>
-      <c r="J98" s="35" t="s">
+      <c r="J98" s="32" t="s">
         <v>460</v>
       </c>
-      <c r="K98" s="35"/>
+      <c r="K98" s="32"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="31"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="32"/>
-      <c r="J99" s="32"/>
-      <c r="K99" s="33"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="46"/>
+      <c r="C99" s="46"/>
+      <c r="D99" s="46"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="46"/>
+      <c r="K99" s="47"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
@@ -5120,17 +5120,17 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="31"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="32"/>
-      <c r="J106" s="32"/>
-      <c r="K106" s="33"/>
+      <c r="A106" s="45"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="46"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="46"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="46"/>
+      <c r="J106" s="46"/>
+      <c r="K106" s="47"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
@@ -5218,7 +5218,7 @@
       <c r="I109" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J109" s="39" t="s">
+      <c r="J109" s="36" t="s">
         <v>477</v>
       </c>
       <c r="K109" s="3" t="s">
@@ -5315,17 +5315,17 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="31"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="32"/>
-      <c r="F113" s="32"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="32"/>
-      <c r="J113" s="32"/>
-      <c r="K113" s="33"/>
+      <c r="A113" s="45"/>
+      <c r="B113" s="46"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="46"/>
+      <c r="J113" s="46"/>
+      <c r="K113" s="47"/>
     </row>
     <row r="114" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
@@ -5334,25 +5334,25 @@
       <c r="B114" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C114" s="34" t="s">
+      <c r="C114" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="34" t="s">
+      <c r="D114" s="31"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="G114" s="34" t="s">
+      <c r="G114" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="H114" s="34" t="s">
+      <c r="H114" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="I114" s="34"/>
-      <c r="J114" s="34" t="s">
+      <c r="I114" s="31"/>
+      <c r="J114" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="K114" s="34" t="s">
+      <c r="K114" s="31" t="s">
         <v>278</v>
       </c>
     </row>
@@ -5363,27 +5363,27 @@
       <c r="B115" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C115" s="34" t="s">
+      <c r="C115" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D115" s="34" t="s">
+      <c r="D115" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="E115" s="34" t="s">
+      <c r="E115" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F115" s="34" t="s">
+      <c r="F115" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G115" s="34"/>
-      <c r="H115" s="34"/>
-      <c r="I115" s="34" t="s">
+      <c r="G115" s="31"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="J115" s="34" t="s">
+      <c r="J115" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="K115" s="34" t="s">
+      <c r="K115" s="31" t="s">
         <v>278</v>
       </c>
     </row>
@@ -5394,25 +5394,25 @@
       <c r="B116" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C116" s="34" t="s">
+      <c r="C116" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="34"/>
-      <c r="E116" s="34" t="s">
+      <c r="D116" s="31"/>
+      <c r="E116" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F116" s="34"/>
-      <c r="G116" s="34" t="s">
+      <c r="F116" s="31"/>
+      <c r="G116" s="31" t="s">
         <v>479</v>
       </c>
-      <c r="H116" s="34" t="s">
+      <c r="H116" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="I116" s="34"/>
-      <c r="J116" s="34" t="s">
+      <c r="I116" s="31"/>
+      <c r="J116" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="K116" s="34" t="s">
+      <c r="K116" s="31" t="s">
         <v>278</v>
       </c>
     </row>
@@ -5423,23 +5423,23 @@
       <c r="B117" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="34" t="s">
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="F117" s="34" t="s">
+      <c r="F117" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G117" s="34"/>
-      <c r="H117" s="34" t="s">
+      <c r="G117" s="31"/>
+      <c r="H117" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I117" s="34" t="s">
+      <c r="I117" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="J117" s="34"/>
-      <c r="K117" s="34" t="s">
+      <c r="J117" s="31"/>
+      <c r="K117" s="31" t="s">
         <v>278</v>
       </c>
     </row>
@@ -5450,25 +5450,25 @@
       <c r="B118" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34" t="s">
+      <c r="C118" s="31"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="F118" s="34" t="s">
+      <c r="F118" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="G118" s="34" t="s">
+      <c r="G118" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34" t="s">
+      <c r="H118" s="31"/>
+      <c r="I118" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="J118" s="34" t="s">
+      <c r="J118" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="K118" s="34" t="s">
+      <c r="K118" s="31" t="s">
         <v>278</v>
       </c>
     </row>
@@ -5479,40 +5479,40 @@
       <c r="B119" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C119" s="34"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="34" t="s">
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F119" s="34" t="s">
+      <c r="F119" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="G119" s="34" t="s">
+      <c r="G119" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H119" s="34"/>
-      <c r="I119" s="34" t="s">
+      <c r="H119" s="31"/>
+      <c r="I119" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="J119" s="34" t="s">
+      <c r="J119" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="K119" s="34" t="s">
+      <c r="K119" s="31" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="31"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="32"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="32"/>
-      <c r="G120" s="32"/>
-      <c r="H120" s="32"/>
-      <c r="I120" s="32"/>
-      <c r="J120" s="32"/>
-      <c r="K120" s="33"/>
+      <c r="A120" s="45"/>
+      <c r="B120" s="46"/>
+      <c r="C120" s="46"/>
+      <c r="D120" s="46"/>
+      <c r="E120" s="46"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="46"/>
+      <c r="H120" s="46"/>
+      <c r="I120" s="46"/>
+      <c r="J120" s="46"/>
+      <c r="K120" s="47"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
@@ -5696,17 +5696,17 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="31"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="32"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="32"/>
-      <c r="H127" s="32"/>
-      <c r="I127" s="32"/>
-      <c r="J127" s="32"/>
-      <c r="K127" s="33"/>
+      <c r="A127" s="45"/>
+      <c r="B127" s="46"/>
+      <c r="C127" s="46"/>
+      <c r="D127" s="46"/>
+      <c r="E127" s="46"/>
+      <c r="F127" s="46"/>
+      <c r="G127" s="46"/>
+      <c r="H127" s="46"/>
+      <c r="I127" s="46"/>
+      <c r="J127" s="46"/>
+      <c r="K127" s="47"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
@@ -5874,17 +5874,17 @@
       <c r="K133" s="3"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="31"/>
-      <c r="B134" s="32"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="32"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="32"/>
-      <c r="G134" s="32"/>
-      <c r="H134" s="32"/>
-      <c r="I134" s="32"/>
-      <c r="J134" s="32"/>
-      <c r="K134" s="33"/>
+      <c r="A134" s="45"/>
+      <c r="B134" s="46"/>
+      <c r="C134" s="46"/>
+      <c r="D134" s="46"/>
+      <c r="E134" s="46"/>
+      <c r="F134" s="46"/>
+      <c r="G134" s="46"/>
+      <c r="H134" s="46"/>
+      <c r="I134" s="46"/>
+      <c r="J134" s="46"/>
+      <c r="K134" s="47"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
@@ -6065,17 +6065,17 @@
       <c r="K140" s="3"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="31"/>
-      <c r="B141" s="32"/>
-      <c r="C141" s="32"/>
-      <c r="D141" s="32"/>
-      <c r="E141" s="32"/>
-      <c r="F141" s="32"/>
-      <c r="G141" s="32"/>
-      <c r="H141" s="32"/>
-      <c r="I141" s="32"/>
-      <c r="J141" s="32"/>
-      <c r="K141" s="33"/>
+      <c r="A141" s="45"/>
+      <c r="B141" s="46"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="46"/>
+      <c r="E141" s="46"/>
+      <c r="F141" s="46"/>
+      <c r="G141" s="46"/>
+      <c r="H141" s="46"/>
+      <c r="I141" s="46"/>
+      <c r="J141" s="46"/>
+      <c r="K141" s="47"/>
     </row>
     <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
@@ -6084,19 +6084,19 @@
       <c r="B142" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="34"/>
-      <c r="F142" s="34"/>
-      <c r="G142" s="39" t="s">
+      <c r="C142" s="31"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="H142" s="39" t="s">
+      <c r="H142" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="I142" s="34"/>
-      <c r="J142" s="34"/>
-      <c r="K142" s="34"/>
+      <c r="I142" s="31"/>
+      <c r="J142" s="31"/>
+      <c r="K142" s="31"/>
     </row>
     <row r="143" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
@@ -6105,19 +6105,19 @@
       <c r="B143" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C143" s="34"/>
-      <c r="D143" s="34"/>
-      <c r="E143" s="34"/>
-      <c r="F143" s="34"/>
-      <c r="G143" s="34"/>
-      <c r="H143" s="41" t="s">
+      <c r="C143" s="31"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="38" t="s">
         <v>482</v>
       </c>
-      <c r="I143" s="34"/>
-      <c r="J143" s="39" t="s">
+      <c r="I143" s="31"/>
+      <c r="J143" s="36" t="s">
         <v>483</v>
       </c>
-      <c r="K143" s="41" t="s">
+      <c r="K143" s="38" t="s">
         <v>484</v>
       </c>
     </row>
@@ -6128,23 +6128,23 @@
       <c r="B144" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C144" s="34"/>
-      <c r="D144" s="44" t="s">
+      <c r="C144" s="31"/>
+      <c r="D144" s="41" t="s">
         <v>502</v>
       </c>
-      <c r="E144" s="34"/>
-      <c r="F144" s="41" t="s">
+      <c r="E144" s="31"/>
+      <c r="F144" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="G144" s="34"/>
-      <c r="H144" s="41" t="s">
+      <c r="G144" s="31"/>
+      <c r="H144" s="38" t="s">
         <v>486</v>
       </c>
-      <c r="I144" s="34"/>
-      <c r="J144" s="34" t="s">
+      <c r="I144" s="31"/>
+      <c r="J144" s="31" t="s">
         <v>487</v>
       </c>
-      <c r="K144" s="41" t="s">
+      <c r="K144" s="38" t="s">
         <v>488</v>
       </c>
     </row>
@@ -6155,23 +6155,23 @@
       <c r="B145" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C145" s="34"/>
-      <c r="D145" s="34"/>
-      <c r="E145" s="39" t="s">
+      <c r="C145" s="31"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="F145" s="34"/>
-      <c r="G145" s="41" t="s">
+      <c r="F145" s="31"/>
+      <c r="G145" s="38" t="s">
         <v>490</v>
       </c>
-      <c r="H145" s="34"/>
-      <c r="I145" s="34" t="s">
+      <c r="H145" s="31"/>
+      <c r="I145" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="J145" s="39" t="s">
+      <c r="J145" s="36" t="s">
         <v>492</v>
       </c>
-      <c r="K145" s="43" t="s">
+      <c r="K145" s="40" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6182,23 +6182,23 @@
       <c r="B146" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C146" s="34"/>
-      <c r="D146" s="41" t="s">
+      <c r="C146" s="31"/>
+      <c r="D146" s="38" t="s">
         <v>493</v>
       </c>
-      <c r="E146" s="42" t="s">
+      <c r="E146" s="39" t="s">
         <v>494</v>
       </c>
-      <c r="F146" s="41" t="s">
+      <c r="F146" s="38" t="s">
         <v>495</v>
       </c>
-      <c r="G146" s="34"/>
-      <c r="H146" s="34"/>
-      <c r="I146" s="39" t="s">
+      <c r="G146" s="31"/>
+      <c r="H146" s="31"/>
+      <c r="I146" s="36" t="s">
         <v>496</v>
       </c>
-      <c r="J146" s="34"/>
-      <c r="K146" s="41" t="s">
+      <c r="J146" s="31"/>
+      <c r="K146" s="38" t="s">
         <v>497</v>
       </c>
     </row>
@@ -6209,36 +6209,36 @@
       <c r="B147" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C147" s="34"/>
-      <c r="D147" s="34"/>
-      <c r="E147" s="34"/>
-      <c r="F147" s="41" t="s">
+      <c r="C147" s="31"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="38" t="s">
         <v>498</v>
       </c>
-      <c r="G147" s="34"/>
-      <c r="H147" s="39" t="s">
+      <c r="G147" s="31"/>
+      <c r="H147" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="I147" s="41" t="s">
+      <c r="I147" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="J147" s="39" t="s">
+      <c r="J147" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="K147" s="34"/>
+      <c r="K147" s="31"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" s="31"/>
-      <c r="B148" s="32"/>
-      <c r="C148" s="32"/>
-      <c r="D148" s="32"/>
-      <c r="E148" s="32"/>
-      <c r="F148" s="32"/>
-      <c r="G148" s="32"/>
-      <c r="H148" s="32"/>
-      <c r="I148" s="32"/>
-      <c r="J148" s="32"/>
-      <c r="K148" s="33"/>
+      <c r="A148" s="45"/>
+      <c r="B148" s="46"/>
+      <c r="C148" s="46"/>
+      <c r="D148" s="46"/>
+      <c r="E148" s="46"/>
+      <c r="F148" s="46"/>
+      <c r="G148" s="46"/>
+      <c r="H148" s="46"/>
+      <c r="I148" s="46"/>
+      <c r="J148" s="46"/>
+      <c r="K148" s="47"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
@@ -6422,17 +6422,17 @@
       <c r="K154" s="3"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" s="31"/>
-      <c r="B155" s="32"/>
-      <c r="C155" s="32"/>
-      <c r="D155" s="32"/>
-      <c r="E155" s="32"/>
-      <c r="F155" s="32"/>
-      <c r="G155" s="32"/>
-      <c r="H155" s="32"/>
-      <c r="I155" s="32"/>
-      <c r="J155" s="32"/>
-      <c r="K155" s="33"/>
+      <c r="A155" s="45"/>
+      <c r="B155" s="46"/>
+      <c r="C155" s="46"/>
+      <c r="D155" s="46"/>
+      <c r="E155" s="46"/>
+      <c r="F155" s="46"/>
+      <c r="G155" s="46"/>
+      <c r="H155" s="46"/>
+      <c r="I155" s="46"/>
+      <c r="J155" s="46"/>
+      <c r="K155" s="47"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
@@ -6597,17 +6597,17 @@
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A162" s="31"/>
-      <c r="B162" s="32"/>
-      <c r="C162" s="32"/>
-      <c r="D162" s="32"/>
-      <c r="E162" s="32"/>
-      <c r="F162" s="32"/>
-      <c r="G162" s="32"/>
-      <c r="H162" s="32"/>
-      <c r="I162" s="32"/>
-      <c r="J162" s="32"/>
-      <c r="K162" s="33"/>
+      <c r="A162" s="45"/>
+      <c r="B162" s="46"/>
+      <c r="C162" s="46"/>
+      <c r="D162" s="46"/>
+      <c r="E162" s="46"/>
+      <c r="F162" s="46"/>
+      <c r="G162" s="46"/>
+      <c r="H162" s="46"/>
+      <c r="I162" s="46"/>
+      <c r="J162" s="46"/>
+      <c r="K162" s="47"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
@@ -6789,17 +6789,17 @@
       <c r="K168" s="3"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A169" s="31"/>
-      <c r="B169" s="32"/>
-      <c r="C169" s="32"/>
-      <c r="D169" s="32"/>
-      <c r="E169" s="32"/>
-      <c r="F169" s="32"/>
-      <c r="G169" s="32"/>
-      <c r="H169" s="32"/>
-      <c r="I169" s="32"/>
-      <c r="J169" s="32"/>
-      <c r="K169" s="33"/>
+      <c r="A169" s="45"/>
+      <c r="B169" s="46"/>
+      <c r="C169" s="46"/>
+      <c r="D169" s="46"/>
+      <c r="E169" s="46"/>
+      <c r="F169" s="46"/>
+      <c r="G169" s="46"/>
+      <c r="H169" s="46"/>
+      <c r="I169" s="46"/>
+      <c r="J169" s="46"/>
+      <c r="K169" s="47"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
@@ -6966,17 +6966,17 @@
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A176" s="31"/>
-      <c r="B176" s="32"/>
-      <c r="C176" s="32"/>
-      <c r="D176" s="32"/>
-      <c r="E176" s="32"/>
-      <c r="F176" s="32"/>
-      <c r="G176" s="32"/>
-      <c r="H176" s="32"/>
-      <c r="I176" s="32"/>
-      <c r="J176" s="32"/>
-      <c r="K176" s="33"/>
+      <c r="A176" s="45"/>
+      <c r="B176" s="46"/>
+      <c r="C176" s="46"/>
+      <c r="D176" s="46"/>
+      <c r="E176" s="46"/>
+      <c r="F176" s="46"/>
+      <c r="G176" s="46"/>
+      <c r="H176" s="46"/>
+      <c r="I176" s="46"/>
+      <c r="J176" s="46"/>
+      <c r="K176" s="47"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
@@ -7162,17 +7162,17 @@
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A183" s="31"/>
-      <c r="B183" s="32"/>
-      <c r="C183" s="32"/>
-      <c r="D183" s="32"/>
-      <c r="E183" s="32"/>
-      <c r="F183" s="32"/>
-      <c r="G183" s="32"/>
-      <c r="H183" s="32"/>
-      <c r="I183" s="32"/>
-      <c r="J183" s="32"/>
-      <c r="K183" s="33"/>
+      <c r="A183" s="45"/>
+      <c r="B183" s="46"/>
+      <c r="C183" s="46"/>
+      <c r="D183" s="46"/>
+      <c r="E183" s="46"/>
+      <c r="F183" s="46"/>
+      <c r="G183" s="46"/>
+      <c r="H183" s="46"/>
+      <c r="I183" s="46"/>
+      <c r="J183" s="46"/>
+      <c r="K183" s="47"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
@@ -7224,7 +7224,7 @@
       <c r="J185" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K185" s="39" t="s">
+      <c r="K185" s="36" t="s">
         <v>504</v>
       </c>
     </row>
@@ -7292,7 +7292,7 @@
       <c r="E188" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F188" s="38" t="s">
+      <c r="F188" s="35" t="s">
         <v>503</v>
       </c>
       <c r="G188" s="3" t="s">
@@ -7534,17 +7534,17 @@
       <c r="K196" s="3"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A197" s="31"/>
-      <c r="B197" s="32"/>
-      <c r="C197" s="32"/>
-      <c r="D197" s="32"/>
-      <c r="E197" s="32"/>
-      <c r="F197" s="32"/>
-      <c r="G197" s="32"/>
-      <c r="H197" s="32"/>
-      <c r="I197" s="32"/>
-      <c r="J197" s="32"/>
-      <c r="K197" s="33"/>
+      <c r="A197" s="45"/>
+      <c r="B197" s="46"/>
+      <c r="C197" s="46"/>
+      <c r="D197" s="46"/>
+      <c r="E197" s="46"/>
+      <c r="F197" s="46"/>
+      <c r="G197" s="46"/>
+      <c r="H197" s="46"/>
+      <c r="I197" s="46"/>
+      <c r="J197" s="46"/>
+      <c r="K197" s="47"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
@@ -7729,17 +7729,17 @@
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A204" s="31"/>
-      <c r="B204" s="32"/>
-      <c r="C204" s="32"/>
-      <c r="D204" s="32"/>
-      <c r="E204" s="32"/>
-      <c r="F204" s="32"/>
-      <c r="G204" s="32"/>
-      <c r="H204" s="32"/>
-      <c r="I204" s="32"/>
-      <c r="J204" s="32"/>
-      <c r="K204" s="33"/>
+      <c r="A204" s="45"/>
+      <c r="B204" s="46"/>
+      <c r="C204" s="46"/>
+      <c r="D204" s="46"/>
+      <c r="E204" s="46"/>
+      <c r="F204" s="46"/>
+      <c r="G204" s="46"/>
+      <c r="H204" s="46"/>
+      <c r="I204" s="46"/>
+      <c r="J204" s="46"/>
+      <c r="K204" s="47"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
@@ -7916,17 +7916,17 @@
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A211" s="31"/>
-      <c r="B211" s="32"/>
-      <c r="C211" s="32"/>
-      <c r="D211" s="32"/>
-      <c r="E211" s="32"/>
-      <c r="F211" s="32"/>
-      <c r="G211" s="32"/>
-      <c r="H211" s="32"/>
-      <c r="I211" s="32"/>
-      <c r="J211" s="32"/>
-      <c r="K211" s="33"/>
+      <c r="A211" s="45"/>
+      <c r="B211" s="46"/>
+      <c r="C211" s="46"/>
+      <c r="D211" s="46"/>
+      <c r="E211" s="46"/>
+      <c r="F211" s="46"/>
+      <c r="G211" s="46"/>
+      <c r="H211" s="46"/>
+      <c r="I211" s="46"/>
+      <c r="J211" s="46"/>
+      <c r="K211" s="47"/>
     </row>
     <row r="212" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
@@ -7935,19 +7935,19 @@
       <c r="B212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C212" s="34"/>
-      <c r="D212" s="34"/>
-      <c r="E212" s="34" t="s">
+      <c r="C212" s="31"/>
+      <c r="D212" s="31"/>
+      <c r="E212" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="F212" s="34"/>
-      <c r="G212" s="34"/>
-      <c r="H212" s="34"/>
-      <c r="I212" s="34"/>
-      <c r="J212" s="34" t="s">
+      <c r="F212" s="31"/>
+      <c r="G212" s="31"/>
+      <c r="H212" s="31"/>
+      <c r="I212" s="31"/>
+      <c r="J212" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="K212" s="34" t="s">
+      <c r="K212" s="31" t="s">
         <v>218</v>
       </c>
     </row>
@@ -7958,23 +7958,23 @@
       <c r="B213" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C213" s="39" t="s">
+      <c r="C213" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D213" s="34"/>
-      <c r="E213" s="34" t="s">
+      <c r="D213" s="31"/>
+      <c r="E213" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="F213" s="34"/>
-      <c r="G213" s="34"/>
-      <c r="H213" s="39" t="s">
+      <c r="F213" s="31"/>
+      <c r="G213" s="31"/>
+      <c r="H213" s="36" t="s">
         <v>505</v>
       </c>
-      <c r="I213" s="34"/>
-      <c r="J213" s="34" t="s">
+      <c r="I213" s="31"/>
+      <c r="J213" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="K213" s="34" t="s">
+      <c r="K213" s="31" t="s">
         <v>218</v>
       </c>
     </row>
@@ -7985,25 +7985,25 @@
       <c r="B214" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C214" s="34" t="s">
+      <c r="C214" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="D214" s="34"/>
-      <c r="E214" s="34" t="s">
+      <c r="D214" s="31"/>
+      <c r="E214" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="F214" s="34" t="s">
+      <c r="F214" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="G214" s="34"/>
-      <c r="H214" s="39" t="s">
+      <c r="G214" s="31"/>
+      <c r="H214" s="36" t="s">
         <v>506</v>
       </c>
-      <c r="I214" s="34"/>
-      <c r="J214" s="34" t="s">
+      <c r="I214" s="31"/>
+      <c r="J214" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="K214" s="34" t="s">
+      <c r="K214" s="31" t="s">
         <v>218</v>
       </c>
     </row>
@@ -8014,25 +8014,25 @@
       <c r="B215" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C215" s="34" t="s">
+      <c r="C215" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="D215" s="34"/>
-      <c r="E215" s="34" t="s">
+      <c r="D215" s="31"/>
+      <c r="E215" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="F215" s="34" t="s">
+      <c r="F215" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="G215" s="34"/>
-      <c r="H215" s="34"/>
-      <c r="I215" s="39" t="s">
+      <c r="G215" s="31"/>
+      <c r="H215" s="31"/>
+      <c r="I215" s="36" t="s">
         <v>507</v>
       </c>
-      <c r="J215" s="34" t="s">
+      <c r="J215" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="K215" s="34" t="s">
+      <c r="K215" s="31" t="s">
         <v>218</v>
       </c>
     </row>
@@ -8043,25 +8043,25 @@
       <c r="B216" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C216" s="34" t="s">
+      <c r="C216" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="D216" s="39" t="s">
+      <c r="D216" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="E216" s="39" t="s">
+      <c r="E216" s="36" t="s">
         <v>509</v>
       </c>
-      <c r="F216" s="34" t="s">
+      <c r="F216" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="G216" s="34"/>
-      <c r="H216" s="34"/>
-      <c r="I216" s="34"/>
-      <c r="J216" s="34" t="s">
+      <c r="G216" s="31"/>
+      <c r="H216" s="31"/>
+      <c r="I216" s="31"/>
+      <c r="J216" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="K216" s="34" t="s">
+      <c r="K216" s="31" t="s">
         <v>218</v>
       </c>
     </row>
@@ -8072,38 +8072,38 @@
       <c r="B217" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C217" s="34" t="s">
+      <c r="C217" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="D217" s="34"/>
-      <c r="E217" s="34"/>
-      <c r="F217" s="34" t="s">
+      <c r="D217" s="31"/>
+      <c r="E217" s="31"/>
+      <c r="F217" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="G217" s="34"/>
-      <c r="H217" s="34"/>
-      <c r="I217" s="39" t="s">
+      <c r="G217" s="31"/>
+      <c r="H217" s="31"/>
+      <c r="I217" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="J217" s="34" t="s">
+      <c r="J217" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="K217" s="34" t="s">
+      <c r="K217" s="31" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A218" s="31"/>
-      <c r="B218" s="32"/>
-      <c r="C218" s="32"/>
-      <c r="D218" s="32"/>
-      <c r="E218" s="32"/>
-      <c r="F218" s="32"/>
-      <c r="G218" s="32"/>
-      <c r="H218" s="32"/>
-      <c r="I218" s="32"/>
-      <c r="J218" s="32"/>
-      <c r="K218" s="33"/>
+      <c r="A218" s="45"/>
+      <c r="B218" s="46"/>
+      <c r="C218" s="46"/>
+      <c r="D218" s="46"/>
+      <c r="E218" s="46"/>
+      <c r="F218" s="46"/>
+      <c r="G218" s="46"/>
+      <c r="H218" s="46"/>
+      <c r="I218" s="46"/>
+      <c r="J218" s="46"/>
+      <c r="K218" s="47"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
@@ -8287,17 +8287,17 @@
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A225" s="31"/>
-      <c r="B225" s="32"/>
-      <c r="C225" s="32"/>
-      <c r="D225" s="32"/>
-      <c r="E225" s="32"/>
-      <c r="F225" s="32"/>
-      <c r="G225" s="32"/>
-      <c r="H225" s="32"/>
-      <c r="I225" s="32"/>
-      <c r="J225" s="32"/>
-      <c r="K225" s="33"/>
+      <c r="A225" s="45"/>
+      <c r="B225" s="46"/>
+      <c r="C225" s="46"/>
+      <c r="D225" s="46"/>
+      <c r="E225" s="46"/>
+      <c r="F225" s="46"/>
+      <c r="G225" s="46"/>
+      <c r="H225" s="46"/>
+      <c r="I225" s="46"/>
+      <c r="J225" s="46"/>
+      <c r="K225" s="47"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
@@ -8571,7 +8571,7 @@
       <c r="J235" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K235" s="46" t="s">
+      <c r="K235" s="43" t="s">
         <v>160</v>
       </c>
     </row>
@@ -8853,17 +8853,17 @@
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A246" s="31"/>
-      <c r="B246" s="32"/>
-      <c r="C246" s="32"/>
-      <c r="D246" s="32"/>
-      <c r="E246" s="32"/>
-      <c r="F246" s="32"/>
-      <c r="G246" s="32"/>
-      <c r="H246" s="32"/>
-      <c r="I246" s="32"/>
-      <c r="J246" s="32"/>
-      <c r="K246" s="33"/>
+      <c r="A246" s="45"/>
+      <c r="B246" s="46"/>
+      <c r="C246" s="46"/>
+      <c r="D246" s="46"/>
+      <c r="E246" s="46"/>
+      <c r="F246" s="46"/>
+      <c r="G246" s="46"/>
+      <c r="H246" s="46"/>
+      <c r="I246" s="46"/>
+      <c r="J246" s="46"/>
+      <c r="K246" s="47"/>
     </row>
     <row r="247" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
@@ -8872,10 +8872,9 @@
       <c r="B247" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C247" s="38" t="s">
+      <c r="D247" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D247" s="3"/>
       <c r="E247" s="3"/>
       <c r="F247" s="3" t="s">
         <v>68</v>
@@ -9032,17 +9031,17 @@
       <c r="K252" s="3"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A253" s="31"/>
-      <c r="B253" s="32"/>
-      <c r="C253" s="32"/>
-      <c r="D253" s="32"/>
-      <c r="E253" s="32"/>
-      <c r="F253" s="32"/>
-      <c r="G253" s="32"/>
-      <c r="H253" s="32"/>
-      <c r="I253" s="32"/>
-      <c r="J253" s="32"/>
-      <c r="K253" s="33"/>
+      <c r="A253" s="45"/>
+      <c r="B253" s="46"/>
+      <c r="C253" s="46"/>
+      <c r="D253" s="46"/>
+      <c r="E253" s="46"/>
+      <c r="F253" s="46"/>
+      <c r="G253" s="46"/>
+      <c r="H253" s="46"/>
+      <c r="I253" s="46"/>
+      <c r="J253" s="46"/>
+      <c r="K253" s="47"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
@@ -9211,17 +9210,17 @@
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A260" s="31"/>
-      <c r="B260" s="32"/>
-      <c r="C260" s="32"/>
-      <c r="D260" s="32"/>
-      <c r="E260" s="32"/>
-      <c r="F260" s="32"/>
-      <c r="G260" s="32"/>
-      <c r="H260" s="32"/>
-      <c r="I260" s="32"/>
-      <c r="J260" s="32"/>
-      <c r="K260" s="33"/>
+      <c r="A260" s="45"/>
+      <c r="B260" s="46"/>
+      <c r="C260" s="46"/>
+      <c r="D260" s="46"/>
+      <c r="E260" s="46"/>
+      <c r="F260" s="46"/>
+      <c r="G260" s="46"/>
+      <c r="H260" s="46"/>
+      <c r="I260" s="46"/>
+      <c r="J260" s="46"/>
+      <c r="K260" s="47"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
@@ -9404,17 +9403,17 @@
       <c r="K266" s="3"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A267" s="31"/>
-      <c r="B267" s="32"/>
-      <c r="C267" s="32"/>
-      <c r="D267" s="32"/>
-      <c r="E267" s="32"/>
-      <c r="F267" s="32"/>
-      <c r="G267" s="32"/>
-      <c r="H267" s="32"/>
-      <c r="I267" s="32"/>
-      <c r="J267" s="32"/>
-      <c r="K267" s="33"/>
+      <c r="A267" s="45"/>
+      <c r="B267" s="46"/>
+      <c r="C267" s="46"/>
+      <c r="D267" s="46"/>
+      <c r="E267" s="46"/>
+      <c r="F267" s="46"/>
+      <c r="G267" s="46"/>
+      <c r="H267" s="46"/>
+      <c r="I267" s="46"/>
+      <c r="J267" s="46"/>
+      <c r="K267" s="47"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
@@ -9599,17 +9598,17 @@
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A274" s="31"/>
-      <c r="B274" s="32"/>
-      <c r="C274" s="32"/>
-      <c r="D274" s="32"/>
-      <c r="E274" s="32"/>
-      <c r="F274" s="32"/>
-      <c r="G274" s="32"/>
-      <c r="H274" s="32"/>
-      <c r="I274" s="32"/>
-      <c r="J274" s="32"/>
-      <c r="K274" s="33"/>
+      <c r="A274" s="45"/>
+      <c r="B274" s="46"/>
+      <c r="C274" s="46"/>
+      <c r="D274" s="46"/>
+      <c r="E274" s="46"/>
+      <c r="F274" s="46"/>
+      <c r="G274" s="46"/>
+      <c r="H274" s="46"/>
+      <c r="I274" s="46"/>
+      <c r="J274" s="46"/>
+      <c r="K274" s="47"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
@@ -9781,17 +9780,17 @@
       <c r="K280" s="3"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A281" s="31"/>
-      <c r="B281" s="32"/>
-      <c r="C281" s="32"/>
-      <c r="D281" s="32"/>
-      <c r="E281" s="32"/>
-      <c r="F281" s="32"/>
-      <c r="G281" s="32"/>
-      <c r="H281" s="32"/>
-      <c r="I281" s="32"/>
-      <c r="J281" s="32"/>
-      <c r="K281" s="33"/>
+      <c r="A281" s="45"/>
+      <c r="B281" s="46"/>
+      <c r="C281" s="46"/>
+      <c r="D281" s="46"/>
+      <c r="E281" s="46"/>
+      <c r="F281" s="46"/>
+      <c r="G281" s="46"/>
+      <c r="H281" s="46"/>
+      <c r="I281" s="46"/>
+      <c r="J281" s="46"/>
+      <c r="K281" s="47"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
@@ -9976,17 +9975,17 @@
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A288" s="31"/>
-      <c r="B288" s="32"/>
-      <c r="C288" s="32"/>
-      <c r="D288" s="32"/>
-      <c r="E288" s="32"/>
-      <c r="F288" s="32"/>
-      <c r="G288" s="32"/>
-      <c r="H288" s="32"/>
-      <c r="I288" s="32"/>
-      <c r="J288" s="32"/>
-      <c r="K288" s="33"/>
+      <c r="A288" s="45"/>
+      <c r="B288" s="46"/>
+      <c r="C288" s="46"/>
+      <c r="D288" s="46"/>
+      <c r="E288" s="46"/>
+      <c r="F288" s="46"/>
+      <c r="G288" s="46"/>
+      <c r="H288" s="46"/>
+      <c r="I288" s="46"/>
+      <c r="J288" s="46"/>
+      <c r="K288" s="47"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
@@ -10163,17 +10162,17 @@
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A295" s="31"/>
-      <c r="B295" s="32"/>
-      <c r="C295" s="32"/>
-      <c r="D295" s="32"/>
-      <c r="E295" s="32"/>
-      <c r="F295" s="32"/>
-      <c r="G295" s="32"/>
-      <c r="H295" s="32"/>
-      <c r="I295" s="32"/>
-      <c r="J295" s="32"/>
-      <c r="K295" s="33"/>
+      <c r="A295" s="45"/>
+      <c r="B295" s="46"/>
+      <c r="C295" s="46"/>
+      <c r="D295" s="46"/>
+      <c r="E295" s="46"/>
+      <c r="F295" s="46"/>
+      <c r="G295" s="46"/>
+      <c r="H295" s="46"/>
+      <c r="I295" s="46"/>
+      <c r="J295" s="46"/>
+      <c r="K295" s="47"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
@@ -10182,25 +10181,25 @@
       <c r="B296" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C296" s="35" t="s">
+      <c r="C296" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D296" s="35" t="s">
+      <c r="D296" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E296" s="35" t="s">
+      <c r="E296" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F296" s="35"/>
-      <c r="G296" s="35"/>
-      <c r="H296" s="35" t="s">
+      <c r="F296" s="32"/>
+      <c r="G296" s="32"/>
+      <c r="H296" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I296" s="40" t="s">
+      <c r="I296" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="J296" s="35"/>
-      <c r="K296" s="35" t="s">
+      <c r="J296" s="32"/>
+      <c r="K296" s="32" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10211,25 +10210,25 @@
       <c r="B297" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C297" s="35" t="s">
+      <c r="C297" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D297" s="40" t="s">
+      <c r="D297" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E297" s="35" t="s">
+      <c r="E297" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F297" s="35"/>
-      <c r="G297" s="40" t="s">
+      <c r="F297" s="32"/>
+      <c r="G297" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="H297" s="35" t="s">
+      <c r="H297" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="I297" s="35"/>
-      <c r="J297" s="35"/>
-      <c r="K297" s="35" t="s">
+      <c r="I297" s="32"/>
+      <c r="J297" s="32"/>
+      <c r="K297" s="32" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10240,25 +10239,25 @@
       <c r="B298" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C298" s="35" t="s">
+      <c r="C298" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D298" s="35" t="s">
+      <c r="D298" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E298" s="35"/>
-      <c r="F298" s="35" t="s">
+      <c r="E298" s="32"/>
+      <c r="F298" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="G298" s="40" t="s">
+      <c r="G298" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="H298" s="35"/>
-      <c r="I298" s="35" t="s">
+      <c r="H298" s="32"/>
+      <c r="I298" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J298" s="35"/>
-      <c r="K298" s="35"/>
+      <c r="J298" s="32"/>
+      <c r="K298" s="32"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
@@ -10267,23 +10266,23 @@
       <c r="B299" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C299" s="35" t="s">
+      <c r="C299" s="32" t="s">
         <v>434</v>
       </c>
-      <c r="D299" s="35" t="s">
+      <c r="D299" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E299" s="35"/>
-      <c r="F299" s="35"/>
-      <c r="G299" s="40" t="s">
+      <c r="E299" s="32"/>
+      <c r="F299" s="32"/>
+      <c r="G299" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="H299" s="35" t="s">
+      <c r="H299" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="I299" s="35"/>
-      <c r="J299" s="35"/>
-      <c r="K299" s="35" t="s">
+      <c r="I299" s="32"/>
+      <c r="J299" s="32"/>
+      <c r="K299" s="32" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10294,23 +10293,23 @@
       <c r="B300" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C300" s="35"/>
-      <c r="D300" s="35"/>
-      <c r="E300" s="35" t="s">
+      <c r="C300" s="32"/>
+      <c r="D300" s="32"/>
+      <c r="E300" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F300" s="35"/>
-      <c r="G300" s="40" t="s">
+      <c r="F300" s="32"/>
+      <c r="G300" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="H300" s="35"/>
-      <c r="I300" s="35" t="s">
+      <c r="H300" s="32"/>
+      <c r="I300" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J300" s="35" t="s">
+      <c r="J300" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="K300" s="35" t="s">
+      <c r="K300" s="32" t="s">
         <v>33</v>
       </c>
     </row>
@@ -10321,38 +10320,38 @@
       <c r="B301" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C301" s="35"/>
-      <c r="D301" s="35" t="s">
+      <c r="C301" s="32"/>
+      <c r="D301" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E301" s="35"/>
-      <c r="F301" s="35" t="s">
+      <c r="E301" s="32"/>
+      <c r="F301" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G301" s="40" t="s">
+      <c r="G301" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="H301" s="40" t="s">
+      <c r="H301" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="I301" s="40" t="s">
+      <c r="I301" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="J301" s="40"/>
-      <c r="K301" s="35"/>
+      <c r="J301" s="37"/>
+      <c r="K301" s="32"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A302" s="31"/>
-      <c r="B302" s="32"/>
-      <c r="C302" s="32"/>
-      <c r="D302" s="32"/>
-      <c r="E302" s="32"/>
-      <c r="F302" s="32"/>
-      <c r="G302" s="32"/>
-      <c r="H302" s="32"/>
-      <c r="I302" s="32"/>
-      <c r="J302" s="32"/>
-      <c r="K302" s="33"/>
+      <c r="A302" s="45"/>
+      <c r="B302" s="46"/>
+      <c r="C302" s="46"/>
+      <c r="D302" s="46"/>
+      <c r="E302" s="46"/>
+      <c r="F302" s="46"/>
+      <c r="G302" s="46"/>
+      <c r="H302" s="46"/>
+      <c r="I302" s="46"/>
+      <c r="J302" s="46"/>
+      <c r="K302" s="47"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
@@ -10523,17 +10522,17 @@
       <c r="K308" s="3"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A309" s="31"/>
-      <c r="B309" s="32"/>
-      <c r="C309" s="32"/>
-      <c r="D309" s="32"/>
-      <c r="E309" s="32"/>
-      <c r="F309" s="32"/>
-      <c r="G309" s="32"/>
-      <c r="H309" s="32"/>
-      <c r="I309" s="32"/>
-      <c r="J309" s="32"/>
-      <c r="K309" s="33"/>
+      <c r="A309" s="45"/>
+      <c r="B309" s="46"/>
+      <c r="C309" s="46"/>
+      <c r="D309" s="46"/>
+      <c r="E309" s="46"/>
+      <c r="F309" s="46"/>
+      <c r="G309" s="46"/>
+      <c r="H309" s="46"/>
+      <c r="I309" s="46"/>
+      <c r="J309" s="46"/>
+      <c r="K309" s="47"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
@@ -10695,17 +10694,17 @@
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A316" s="31"/>
-      <c r="B316" s="32"/>
-      <c r="C316" s="32"/>
-      <c r="D316" s="32"/>
-      <c r="E316" s="32"/>
-      <c r="F316" s="32"/>
-      <c r="G316" s="32"/>
-      <c r="H316" s="32"/>
-      <c r="I316" s="32"/>
-      <c r="J316" s="32"/>
-      <c r="K316" s="33"/>
+      <c r="A316" s="45"/>
+      <c r="B316" s="46"/>
+      <c r="C316" s="46"/>
+      <c r="D316" s="46"/>
+      <c r="E316" s="46"/>
+      <c r="F316" s="46"/>
+      <c r="G316" s="46"/>
+      <c r="H316" s="46"/>
+      <c r="I316" s="46"/>
+      <c r="J316" s="46"/>
+      <c r="K316" s="47"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
@@ -10884,17 +10883,17 @@
       <c r="J322" s="3"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A323" s="31"/>
-      <c r="B323" s="32"/>
-      <c r="C323" s="32"/>
-      <c r="D323" s="32"/>
-      <c r="E323" s="32"/>
-      <c r="F323" s="32"/>
-      <c r="G323" s="32"/>
-      <c r="H323" s="32"/>
-      <c r="I323" s="32"/>
-      <c r="J323" s="32"/>
-      <c r="K323" s="33"/>
+      <c r="A323" s="45"/>
+      <c r="B323" s="46"/>
+      <c r="C323" s="46"/>
+      <c r="D323" s="46"/>
+      <c r="E323" s="46"/>
+      <c r="F323" s="46"/>
+      <c r="G323" s="46"/>
+      <c r="H323" s="46"/>
+      <c r="I323" s="46"/>
+      <c r="J323" s="46"/>
+      <c r="K323" s="47"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
@@ -11075,17 +11074,17 @@
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A330" s="31"/>
-      <c r="B330" s="32"/>
-      <c r="C330" s="32"/>
-      <c r="D330" s="32"/>
-      <c r="E330" s="32"/>
-      <c r="F330" s="32"/>
-      <c r="G330" s="32"/>
-      <c r="H330" s="32"/>
-      <c r="I330" s="32"/>
-      <c r="J330" s="32"/>
-      <c r="K330" s="33"/>
+      <c r="A330" s="45"/>
+      <c r="B330" s="46"/>
+      <c r="C330" s="46"/>
+      <c r="D330" s="46"/>
+      <c r="E330" s="46"/>
+      <c r="F330" s="46"/>
+      <c r="G330" s="46"/>
+      <c r="H330" s="46"/>
+      <c r="I330" s="46"/>
+      <c r="J330" s="46"/>
+      <c r="K330" s="47"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
@@ -11260,17 +11259,17 @@
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A337" s="31"/>
-      <c r="B337" s="32"/>
-      <c r="C337" s="32"/>
-      <c r="D337" s="32"/>
-      <c r="E337" s="32"/>
-      <c r="F337" s="32"/>
-      <c r="G337" s="32"/>
-      <c r="H337" s="32"/>
-      <c r="I337" s="32"/>
-      <c r="J337" s="32"/>
-      <c r="K337" s="33"/>
+      <c r="A337" s="45"/>
+      <c r="B337" s="46"/>
+      <c r="C337" s="46"/>
+      <c r="D337" s="46"/>
+      <c r="E337" s="46"/>
+      <c r="F337" s="46"/>
+      <c r="G337" s="46"/>
+      <c r="H337" s="46"/>
+      <c r="I337" s="46"/>
+      <c r="J337" s="46"/>
+      <c r="K337" s="47"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
@@ -11378,7 +11377,7 @@
         <v>80</v>
       </c>
       <c r="H341" s="3"/>
-      <c r="I341" s="39" t="s">
+      <c r="I341" s="36" t="s">
         <v>512</v>
       </c>
       <c r="J341" s="3" t="s">
@@ -11449,17 +11448,17 @@
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A344" s="31"/>
-      <c r="B344" s="32"/>
-      <c r="C344" s="32"/>
-      <c r="D344" s="32"/>
-      <c r="E344" s="32"/>
-      <c r="F344" s="32"/>
-      <c r="G344" s="32"/>
-      <c r="H344" s="32"/>
-      <c r="I344" s="32"/>
-      <c r="J344" s="32"/>
-      <c r="K344" s="33"/>
+      <c r="A344" s="45"/>
+      <c r="B344" s="46"/>
+      <c r="C344" s="46"/>
+      <c r="D344" s="46"/>
+      <c r="E344" s="46"/>
+      <c r="F344" s="46"/>
+      <c r="G344" s="46"/>
+      <c r="H344" s="46"/>
+      <c r="I344" s="46"/>
+      <c r="J344" s="46"/>
+      <c r="K344" s="47"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
@@ -11644,17 +11643,17 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A351" s="31"/>
-      <c r="B351" s="32"/>
-      <c r="C351" s="32"/>
-      <c r="D351" s="32"/>
-      <c r="E351" s="32"/>
-      <c r="F351" s="32"/>
-      <c r="G351" s="32"/>
-      <c r="H351" s="32"/>
-      <c r="I351" s="32"/>
-      <c r="J351" s="32"/>
-      <c r="K351" s="33"/>
+      <c r="A351" s="45"/>
+      <c r="B351" s="46"/>
+      <c r="C351" s="46"/>
+      <c r="D351" s="46"/>
+      <c r="E351" s="46"/>
+      <c r="F351" s="46"/>
+      <c r="G351" s="46"/>
+      <c r="H351" s="46"/>
+      <c r="I351" s="46"/>
+      <c r="J351" s="46"/>
+      <c r="K351" s="47"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
@@ -11755,7 +11754,7 @@
       <c r="F355" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="G355" s="39" t="s">
+      <c r="G355" s="36" t="s">
         <v>69</v>
       </c>
       <c r="H355" s="3" t="s">
@@ -11765,7 +11764,7 @@
         <v>82</v>
       </c>
       <c r="J355" s="20"/>
-      <c r="K355" s="39" t="s">
+      <c r="K355" s="36" t="s">
         <v>513</v>
       </c>
     </row>
@@ -11830,17 +11829,17 @@
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A358" s="31"/>
-      <c r="B358" s="32"/>
-      <c r="C358" s="32"/>
-      <c r="D358" s="32"/>
-      <c r="E358" s="32"/>
-      <c r="F358" s="32"/>
-      <c r="G358" s="32"/>
-      <c r="H358" s="32"/>
-      <c r="I358" s="32"/>
-      <c r="J358" s="32"/>
-      <c r="K358" s="33"/>
+      <c r="A358" s="45"/>
+      <c r="B358" s="46"/>
+      <c r="C358" s="46"/>
+      <c r="D358" s="46"/>
+      <c r="E358" s="46"/>
+      <c r="F358" s="46"/>
+      <c r="G358" s="46"/>
+      <c r="H358" s="46"/>
+      <c r="I358" s="46"/>
+      <c r="J358" s="46"/>
+      <c r="K358" s="47"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
@@ -12011,17 +12010,17 @@
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A365" s="31"/>
-      <c r="B365" s="32"/>
-      <c r="C365" s="32"/>
-      <c r="D365" s="32"/>
-      <c r="E365" s="32"/>
-      <c r="F365" s="32"/>
-      <c r="G365" s="32"/>
-      <c r="H365" s="32"/>
-      <c r="I365" s="32"/>
-      <c r="J365" s="32"/>
-      <c r="K365" s="33"/>
+      <c r="A365" s="45"/>
+      <c r="B365" s="46"/>
+      <c r="C365" s="46"/>
+      <c r="D365" s="46"/>
+      <c r="E365" s="46"/>
+      <c r="F365" s="46"/>
+      <c r="G365" s="46"/>
+      <c r="H365" s="46"/>
+      <c r="I365" s="46"/>
+      <c r="J365" s="46"/>
+      <c r="K365" s="47"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
@@ -12180,17 +12179,17 @@
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A372" s="31"/>
-      <c r="B372" s="32"/>
-      <c r="C372" s="32"/>
-      <c r="D372" s="32"/>
-      <c r="E372" s="32"/>
-      <c r="F372" s="32"/>
-      <c r="G372" s="32"/>
-      <c r="H372" s="32"/>
-      <c r="I372" s="32"/>
-      <c r="J372" s="32"/>
-      <c r="K372" s="33"/>
+      <c r="A372" s="45"/>
+      <c r="B372" s="46"/>
+      <c r="C372" s="46"/>
+      <c r="D372" s="46"/>
+      <c r="E372" s="46"/>
+      <c r="F372" s="46"/>
+      <c r="G372" s="46"/>
+      <c r="H372" s="46"/>
+      <c r="I372" s="46"/>
+      <c r="J372" s="46"/>
+      <c r="K372" s="47"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
@@ -12375,17 +12374,17 @@
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A379" s="31"/>
-      <c r="B379" s="32"/>
-      <c r="C379" s="32"/>
-      <c r="D379" s="32"/>
-      <c r="E379" s="32"/>
-      <c r="F379" s="32"/>
-      <c r="G379" s="32"/>
-      <c r="H379" s="32"/>
-      <c r="I379" s="32"/>
-      <c r="J379" s="32"/>
-      <c r="K379" s="33"/>
+      <c r="A379" s="45"/>
+      <c r="B379" s="46"/>
+      <c r="C379" s="46"/>
+      <c r="D379" s="46"/>
+      <c r="E379" s="46"/>
+      <c r="F379" s="46"/>
+      <c r="G379" s="46"/>
+      <c r="H379" s="46"/>
+      <c r="I379" s="46"/>
+      <c r="J379" s="46"/>
+      <c r="K379" s="47"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
@@ -12451,7 +12450,7 @@
         <v>173</v>
       </c>
       <c r="E382" s="3"/>
-      <c r="F382" s="38" t="s">
+      <c r="F382" s="35" t="s">
         <v>62</v>
       </c>
       <c r="G382" s="3" t="s">
@@ -12546,17 +12545,17 @@
       <c r="K385" s="3"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A386" s="31"/>
-      <c r="B386" s="32"/>
-      <c r="C386" s="32"/>
-      <c r="D386" s="32"/>
-      <c r="E386" s="32"/>
-      <c r="F386" s="32"/>
-      <c r="G386" s="32"/>
-      <c r="H386" s="32"/>
-      <c r="I386" s="32"/>
-      <c r="J386" s="32"/>
-      <c r="K386" s="33"/>
+      <c r="A386" s="45"/>
+      <c r="B386" s="46"/>
+      <c r="C386" s="46"/>
+      <c r="D386" s="46"/>
+      <c r="E386" s="46"/>
+      <c r="F386" s="46"/>
+      <c r="G386" s="46"/>
+      <c r="H386" s="46"/>
+      <c r="I386" s="46"/>
+      <c r="J386" s="46"/>
+      <c r="K386" s="47"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
@@ -12723,17 +12722,17 @@
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A393" s="31"/>
-      <c r="B393" s="32"/>
-      <c r="C393" s="32"/>
-      <c r="D393" s="32"/>
-      <c r="E393" s="32"/>
-      <c r="F393" s="32"/>
-      <c r="G393" s="32"/>
-      <c r="H393" s="32"/>
-      <c r="I393" s="32"/>
-      <c r="J393" s="32"/>
-      <c r="K393" s="33"/>
+      <c r="A393" s="45"/>
+      <c r="B393" s="46"/>
+      <c r="C393" s="46"/>
+      <c r="D393" s="46"/>
+      <c r="E393" s="46"/>
+      <c r="F393" s="46"/>
+      <c r="G393" s="46"/>
+      <c r="H393" s="46"/>
+      <c r="I393" s="46"/>
+      <c r="J393" s="46"/>
+      <c r="K393" s="47"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
@@ -12784,7 +12783,7 @@
       <c r="G395" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H395" s="39" t="s">
+      <c r="H395" s="36" t="s">
         <v>514</v>
       </c>
       <c r="I395" s="3" t="s">
@@ -12905,17 +12904,17 @@
       <c r="K399" s="3"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A400" s="31"/>
-      <c r="B400" s="32"/>
-      <c r="C400" s="32"/>
-      <c r="D400" s="32"/>
-      <c r="E400" s="32"/>
-      <c r="F400" s="32"/>
-      <c r="G400" s="32"/>
-      <c r="H400" s="32"/>
-      <c r="I400" s="32"/>
-      <c r="J400" s="32"/>
-      <c r="K400" s="33"/>
+      <c r="A400" s="45"/>
+      <c r="B400" s="46"/>
+      <c r="C400" s="46"/>
+      <c r="D400" s="46"/>
+      <c r="E400" s="46"/>
+      <c r="F400" s="46"/>
+      <c r="G400" s="46"/>
+      <c r="H400" s="46"/>
+      <c r="I400" s="46"/>
+      <c r="J400" s="46"/>
+      <c r="K400" s="47"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
@@ -13086,17 +13085,17 @@
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A407" s="31"/>
-      <c r="B407" s="32"/>
-      <c r="C407" s="32"/>
-      <c r="D407" s="32"/>
-      <c r="E407" s="32"/>
-      <c r="F407" s="32"/>
-      <c r="G407" s="32"/>
-      <c r="H407" s="32"/>
-      <c r="I407" s="32"/>
-      <c r="J407" s="32"/>
-      <c r="K407" s="33"/>
+      <c r="A407" s="45"/>
+      <c r="B407" s="46"/>
+      <c r="C407" s="46"/>
+      <c r="D407" s="46"/>
+      <c r="E407" s="46"/>
+      <c r="F407" s="46"/>
+      <c r="G407" s="46"/>
+      <c r="H407" s="46"/>
+      <c r="I407" s="46"/>
+      <c r="J407" s="46"/>
+      <c r="K407" s="47"/>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
@@ -13280,17 +13279,17 @@
       <c r="K413" s="3"/>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A414" s="31"/>
-      <c r="B414" s="32"/>
-      <c r="C414" s="32"/>
-      <c r="D414" s="32"/>
-      <c r="E414" s="32"/>
-      <c r="F414" s="32"/>
-      <c r="G414" s="32"/>
-      <c r="H414" s="32"/>
-      <c r="I414" s="32"/>
-      <c r="J414" s="32"/>
-      <c r="K414" s="33"/>
+      <c r="A414" s="45"/>
+      <c r="B414" s="46"/>
+      <c r="C414" s="46"/>
+      <c r="D414" s="46"/>
+      <c r="E414" s="46"/>
+      <c r="F414" s="46"/>
+      <c r="G414" s="46"/>
+      <c r="H414" s="46"/>
+      <c r="I414" s="46"/>
+      <c r="J414" s="46"/>
+      <c r="K414" s="47"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
@@ -13467,17 +13466,17 @@
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A421" s="31"/>
-      <c r="B421" s="32"/>
-      <c r="C421" s="32"/>
-      <c r="D421" s="32"/>
-      <c r="E421" s="32"/>
-      <c r="F421" s="32"/>
-      <c r="G421" s="32"/>
-      <c r="H421" s="32"/>
-      <c r="I421" s="32"/>
-      <c r="J421" s="32"/>
-      <c r="K421" s="33"/>
+      <c r="A421" s="45"/>
+      <c r="B421" s="46"/>
+      <c r="C421" s="46"/>
+      <c r="D421" s="46"/>
+      <c r="E421" s="46"/>
+      <c r="F421" s="46"/>
+      <c r="G421" s="46"/>
+      <c r="H421" s="46"/>
+      <c r="I421" s="46"/>
+      <c r="J421" s="46"/>
+      <c r="K421" s="47"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
@@ -13653,17 +13652,17 @@
       <c r="K427" s="3"/>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A428" s="31"/>
-      <c r="B428" s="32"/>
-      <c r="C428" s="32"/>
-      <c r="D428" s="32"/>
-      <c r="E428" s="32"/>
-      <c r="F428" s="32"/>
-      <c r="G428" s="32"/>
-      <c r="H428" s="32"/>
-      <c r="I428" s="32"/>
-      <c r="J428" s="32"/>
-      <c r="K428" s="33"/>
+      <c r="A428" s="45"/>
+      <c r="B428" s="46"/>
+      <c r="C428" s="46"/>
+      <c r="D428" s="46"/>
+      <c r="E428" s="46"/>
+      <c r="F428" s="46"/>
+      <c r="G428" s="46"/>
+      <c r="H428" s="46"/>
+      <c r="I428" s="46"/>
+      <c r="J428" s="46"/>
+      <c r="K428" s="47"/>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
@@ -13846,17 +13845,17 @@
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A435" s="31"/>
-      <c r="B435" s="32"/>
-      <c r="C435" s="32"/>
-      <c r="D435" s="32"/>
-      <c r="E435" s="32"/>
-      <c r="F435" s="32"/>
-      <c r="G435" s="32"/>
-      <c r="H435" s="32"/>
-      <c r="I435" s="32"/>
-      <c r="J435" s="32"/>
-      <c r="K435" s="33"/>
+      <c r="A435" s="45"/>
+      <c r="B435" s="46"/>
+      <c r="C435" s="46"/>
+      <c r="D435" s="46"/>
+      <c r="E435" s="46"/>
+      <c r="F435" s="46"/>
+      <c r="G435" s="46"/>
+      <c r="H435" s="46"/>
+      <c r="I435" s="46"/>
+      <c r="J435" s="46"/>
+      <c r="K435" s="47"/>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
@@ -14037,17 +14036,17 @@
       <c r="K441" s="3"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A442" s="31"/>
-      <c r="B442" s="32"/>
-      <c r="C442" s="32"/>
-      <c r="D442" s="32"/>
-      <c r="E442" s="32"/>
-      <c r="F442" s="32"/>
-      <c r="G442" s="32"/>
-      <c r="H442" s="32"/>
-      <c r="I442" s="32"/>
-      <c r="J442" s="32"/>
-      <c r="K442" s="33"/>
+      <c r="A442" s="45"/>
+      <c r="B442" s="46"/>
+      <c r="C442" s="46"/>
+      <c r="D442" s="46"/>
+      <c r="E442" s="46"/>
+      <c r="F442" s="46"/>
+      <c r="G442" s="46"/>
+      <c r="H442" s="46"/>
+      <c r="I442" s="46"/>
+      <c r="J442" s="46"/>
+      <c r="K442" s="47"/>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
@@ -14216,17 +14215,17 @@
       <c r="K448" s="3"/>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A449" s="31"/>
-      <c r="B449" s="32"/>
-      <c r="C449" s="32"/>
-      <c r="D449" s="32"/>
-      <c r="E449" s="32"/>
-      <c r="F449" s="32"/>
-      <c r="G449" s="32"/>
-      <c r="H449" s="32"/>
-      <c r="I449" s="32"/>
-      <c r="J449" s="32"/>
-      <c r="K449" s="33"/>
+      <c r="A449" s="45"/>
+      <c r="B449" s="46"/>
+      <c r="C449" s="46"/>
+      <c r="D449" s="46"/>
+      <c r="E449" s="46"/>
+      <c r="F449" s="46"/>
+      <c r="G449" s="46"/>
+      <c r="H449" s="46"/>
+      <c r="I449" s="46"/>
+      <c r="J449" s="46"/>
+      <c r="K449" s="47"/>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
@@ -14403,17 +14402,17 @@
       <c r="K455" s="3"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A456" s="31"/>
-      <c r="B456" s="32"/>
-      <c r="C456" s="32"/>
-      <c r="D456" s="32"/>
-      <c r="E456" s="32"/>
-      <c r="F456" s="32"/>
-      <c r="G456" s="32"/>
-      <c r="H456" s="32"/>
-      <c r="I456" s="32"/>
-      <c r="J456" s="32"/>
-      <c r="K456" s="33"/>
+      <c r="A456" s="45"/>
+      <c r="B456" s="46"/>
+      <c r="C456" s="46"/>
+      <c r="D456" s="46"/>
+      <c r="E456" s="46"/>
+      <c r="F456" s="46"/>
+      <c r="G456" s="46"/>
+      <c r="H456" s="46"/>
+      <c r="I456" s="46"/>
+      <c r="J456" s="46"/>
+      <c r="K456" s="47"/>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
@@ -14572,17 +14571,17 @@
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A463" s="31"/>
-      <c r="B463" s="32"/>
-      <c r="C463" s="32"/>
-      <c r="D463" s="32"/>
-      <c r="E463" s="32"/>
-      <c r="F463" s="32"/>
-      <c r="G463" s="32"/>
-      <c r="H463" s="32"/>
-      <c r="I463" s="32"/>
-      <c r="J463" s="32"/>
-      <c r="K463" s="33"/>
+      <c r="A463" s="45"/>
+      <c r="B463" s="46"/>
+      <c r="C463" s="46"/>
+      <c r="D463" s="46"/>
+      <c r="E463" s="46"/>
+      <c r="F463" s="46"/>
+      <c r="G463" s="46"/>
+      <c r="H463" s="46"/>
+      <c r="I463" s="46"/>
+      <c r="J463" s="46"/>
+      <c r="K463" s="47"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
@@ -14742,17 +14741,17 @@
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A470" s="31"/>
-      <c r="B470" s="32"/>
-      <c r="C470" s="32"/>
-      <c r="D470" s="32"/>
-      <c r="E470" s="32"/>
-      <c r="F470" s="32"/>
-      <c r="G470" s="32"/>
-      <c r="H470" s="32"/>
-      <c r="I470" s="32"/>
-      <c r="J470" s="32"/>
-      <c r="K470" s="33"/>
+      <c r="A470" s="45"/>
+      <c r="B470" s="46"/>
+      <c r="C470" s="46"/>
+      <c r="D470" s="46"/>
+      <c r="E470" s="46"/>
+      <c r="F470" s="46"/>
+      <c r="G470" s="46"/>
+      <c r="H470" s="46"/>
+      <c r="I470" s="46"/>
+      <c r="J470" s="46"/>
+      <c r="K470" s="47"/>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
@@ -14935,17 +14934,17 @@
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A477" s="31"/>
-      <c r="B477" s="32"/>
-      <c r="C477" s="32"/>
-      <c r="D477" s="32"/>
-      <c r="E477" s="32"/>
-      <c r="F477" s="32"/>
-      <c r="G477" s="32"/>
-      <c r="H477" s="32"/>
-      <c r="I477" s="32"/>
-      <c r="J477" s="32"/>
-      <c r="K477" s="33"/>
+      <c r="A477" s="45"/>
+      <c r="B477" s="46"/>
+      <c r="C477" s="46"/>
+      <c r="D477" s="46"/>
+      <c r="E477" s="46"/>
+      <c r="F477" s="46"/>
+      <c r="G477" s="46"/>
+      <c r="H477" s="46"/>
+      <c r="I477" s="46"/>
+      <c r="J477" s="46"/>
+      <c r="K477" s="47"/>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
@@ -15112,17 +15111,17 @@
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A484" s="31"/>
-      <c r="B484" s="32"/>
-      <c r="C484" s="32"/>
-      <c r="D484" s="32"/>
-      <c r="E484" s="32"/>
-      <c r="F484" s="32"/>
-      <c r="G484" s="32"/>
-      <c r="H484" s="32"/>
-      <c r="I484" s="32"/>
-      <c r="J484" s="32"/>
-      <c r="K484" s="33"/>
+      <c r="A484" s="45"/>
+      <c r="B484" s="46"/>
+      <c r="C484" s="46"/>
+      <c r="D484" s="46"/>
+      <c r="E484" s="46"/>
+      <c r="F484" s="46"/>
+      <c r="G484" s="46"/>
+      <c r="H484" s="46"/>
+      <c r="I484" s="46"/>
+      <c r="J484" s="46"/>
+      <c r="K484" s="47"/>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
@@ -15309,17 +15308,17 @@
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A491" s="31"/>
-      <c r="B491" s="32"/>
-      <c r="C491" s="32"/>
-      <c r="D491" s="32"/>
-      <c r="E491" s="32"/>
-      <c r="F491" s="32"/>
-      <c r="G491" s="32"/>
-      <c r="H491" s="32"/>
-      <c r="I491" s="32"/>
-      <c r="J491" s="32"/>
-      <c r="K491" s="33"/>
+      <c r="A491" s="45"/>
+      <c r="B491" s="46"/>
+      <c r="C491" s="46"/>
+      <c r="D491" s="46"/>
+      <c r="E491" s="46"/>
+      <c r="F491" s="46"/>
+      <c r="G491" s="46"/>
+      <c r="H491" s="46"/>
+      <c r="I491" s="46"/>
+      <c r="J491" s="46"/>
+      <c r="K491" s="47"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
@@ -15506,17 +15505,17 @@
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A498" s="31"/>
-      <c r="B498" s="32"/>
-      <c r="C498" s="32"/>
-      <c r="D498" s="32"/>
-      <c r="E498" s="32"/>
-      <c r="F498" s="32"/>
-      <c r="G498" s="32"/>
-      <c r="H498" s="32"/>
-      <c r="I498" s="32"/>
-      <c r="J498" s="32"/>
-      <c r="K498" s="33"/>
+      <c r="A498" s="45"/>
+      <c r="B498" s="46"/>
+      <c r="C498" s="46"/>
+      <c r="D498" s="46"/>
+      <c r="E498" s="46"/>
+      <c r="F498" s="46"/>
+      <c r="G498" s="46"/>
+      <c r="H498" s="46"/>
+      <c r="I498" s="46"/>
+      <c r="J498" s="46"/>
+      <c r="K498" s="47"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
@@ -15697,17 +15696,17 @@
       <c r="K504" s="3"/>
     </row>
     <row r="505" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A505" s="31"/>
-      <c r="B505" s="32"/>
-      <c r="C505" s="32"/>
-      <c r="D505" s="32"/>
-      <c r="E505" s="32"/>
-      <c r="F505" s="32"/>
-      <c r="G505" s="32"/>
-      <c r="H505" s="32"/>
-      <c r="I505" s="32"/>
-      <c r="J505" s="32"/>
-      <c r="K505" s="33"/>
+      <c r="A505" s="45"/>
+      <c r="B505" s="46"/>
+      <c r="C505" s="46"/>
+      <c r="D505" s="46"/>
+      <c r="E505" s="46"/>
+      <c r="F505" s="46"/>
+      <c r="G505" s="46"/>
+      <c r="H505" s="46"/>
+      <c r="I505" s="46"/>
+      <c r="J505" s="46"/>
+      <c r="K505" s="47"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
@@ -15864,17 +15863,17 @@
       </c>
     </row>
     <row r="512" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="31"/>
-      <c r="B512" s="32"/>
-      <c r="C512" s="32"/>
-      <c r="D512" s="32"/>
-      <c r="E512" s="32"/>
-      <c r="F512" s="32"/>
-      <c r="G512" s="32"/>
-      <c r="H512" s="32"/>
-      <c r="I512" s="32"/>
-      <c r="J512" s="32"/>
-      <c r="K512" s="33"/>
+      <c r="A512" s="45"/>
+      <c r="B512" s="46"/>
+      <c r="C512" s="46"/>
+      <c r="D512" s="46"/>
+      <c r="E512" s="46"/>
+      <c r="F512" s="46"/>
+      <c r="G512" s="46"/>
+      <c r="H512" s="46"/>
+      <c r="I512" s="46"/>
+      <c r="J512" s="46"/>
+      <c r="K512" s="47"/>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
@@ -16055,17 +16054,17 @@
       <c r="K518" s="3"/>
     </row>
     <row r="519" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A519" s="31"/>
-      <c r="B519" s="32"/>
-      <c r="C519" s="32"/>
-      <c r="D519" s="32"/>
-      <c r="E519" s="32"/>
-      <c r="F519" s="32"/>
-      <c r="G519" s="32"/>
-      <c r="H519" s="32"/>
-      <c r="I519" s="32"/>
-      <c r="J519" s="32"/>
-      <c r="K519" s="33"/>
+      <c r="A519" s="45"/>
+      <c r="B519" s="46"/>
+      <c r="C519" s="46"/>
+      <c r="D519" s="46"/>
+      <c r="E519" s="46"/>
+      <c r="F519" s="46"/>
+      <c r="G519" s="46"/>
+      <c r="H519" s="46"/>
+      <c r="I519" s="46"/>
+      <c r="J519" s="46"/>
+      <c r="K519" s="47"/>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
@@ -16242,17 +16241,17 @@
       </c>
     </row>
     <row r="526" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A526" s="31"/>
-      <c r="B526" s="32"/>
-      <c r="C526" s="32"/>
-      <c r="D526" s="32"/>
-      <c r="E526" s="32"/>
-      <c r="F526" s="32"/>
-      <c r="G526" s="32"/>
-      <c r="H526" s="32"/>
-      <c r="I526" s="32"/>
-      <c r="J526" s="32"/>
-      <c r="K526" s="33"/>
+      <c r="A526" s="45"/>
+      <c r="B526" s="46"/>
+      <c r="C526" s="46"/>
+      <c r="D526" s="46"/>
+      <c r="E526" s="46"/>
+      <c r="F526" s="46"/>
+      <c r="G526" s="46"/>
+      <c r="H526" s="46"/>
+      <c r="I526" s="46"/>
+      <c r="J526" s="46"/>
+      <c r="K526" s="47"/>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
@@ -16291,7 +16290,7 @@
       <c r="C528" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D528" s="38" t="s">
+      <c r="D528" s="35" t="s">
         <v>515</v>
       </c>
       <c r="E528" s="3"/>
@@ -16427,17 +16426,17 @@
       </c>
     </row>
     <row r="533" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A533" s="31"/>
-      <c r="B533" s="32"/>
-      <c r="C533" s="32"/>
-      <c r="D533" s="32"/>
-      <c r="E533" s="32"/>
-      <c r="F533" s="32"/>
-      <c r="G533" s="32"/>
-      <c r="H533" s="32"/>
-      <c r="I533" s="32"/>
-      <c r="J533" s="32"/>
-      <c r="K533" s="33"/>
+      <c r="A533" s="45"/>
+      <c r="B533" s="46"/>
+      <c r="C533" s="46"/>
+      <c r="D533" s="46"/>
+      <c r="E533" s="46"/>
+      <c r="F533" s="46"/>
+      <c r="G533" s="46"/>
+      <c r="H533" s="46"/>
+      <c r="I533" s="46"/>
+      <c r="J533" s="46"/>
+      <c r="K533" s="47"/>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="2" t="s">
@@ -16621,17 +16620,17 @@
       </c>
     </row>
     <row r="540" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="31"/>
-      <c r="B540" s="32"/>
-      <c r="C540" s="32"/>
-      <c r="D540" s="32"/>
-      <c r="E540" s="32"/>
-      <c r="F540" s="32"/>
-      <c r="G540" s="32"/>
-      <c r="H540" s="32"/>
-      <c r="I540" s="32"/>
-      <c r="J540" s="32"/>
-      <c r="K540" s="33"/>
+      <c r="A540" s="45"/>
+      <c r="B540" s="46"/>
+      <c r="C540" s="46"/>
+      <c r="D540" s="46"/>
+      <c r="E540" s="46"/>
+      <c r="F540" s="46"/>
+      <c r="G540" s="46"/>
+      <c r="H540" s="46"/>
+      <c r="I540" s="46"/>
+      <c r="J540" s="46"/>
+      <c r="K540" s="47"/>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="2" t="s">
@@ -16818,17 +16817,17 @@
       </c>
     </row>
     <row r="547" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="31"/>
-      <c r="B547" s="32"/>
-      <c r="C547" s="32"/>
-      <c r="D547" s="32"/>
-      <c r="E547" s="32"/>
-      <c r="F547" s="32"/>
-      <c r="G547" s="32"/>
-      <c r="H547" s="32"/>
-      <c r="I547" s="32"/>
-      <c r="J547" s="32"/>
-      <c r="K547" s="33"/>
+      <c r="A547" s="45"/>
+      <c r="B547" s="46"/>
+      <c r="C547" s="46"/>
+      <c r="D547" s="46"/>
+      <c r="E547" s="46"/>
+      <c r="F547" s="46"/>
+      <c r="G547" s="46"/>
+      <c r="H547" s="46"/>
+      <c r="I547" s="46"/>
+      <c r="J547" s="46"/>
+      <c r="K547" s="47"/>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
@@ -17007,17 +17006,17 @@
       <c r="K553" s="3"/>
     </row>
     <row r="554" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A554" s="31"/>
-      <c r="B554" s="32"/>
-      <c r="C554" s="32"/>
-      <c r="D554" s="32"/>
-      <c r="E554" s="32"/>
-      <c r="F554" s="32"/>
-      <c r="G554" s="32"/>
-      <c r="H554" s="32"/>
-      <c r="I554" s="32"/>
-      <c r="J554" s="32"/>
-      <c r="K554" s="33"/>
+      <c r="A554" s="45"/>
+      <c r="B554" s="46"/>
+      <c r="C554" s="46"/>
+      <c r="D554" s="46"/>
+      <c r="E554" s="46"/>
+      <c r="F554" s="46"/>
+      <c r="G554" s="46"/>
+      <c r="H554" s="46"/>
+      <c r="I554" s="46"/>
+      <c r="J554" s="46"/>
+      <c r="K554" s="47"/>
     </row>
     <row r="555" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A555" s="2" t="s">
@@ -17125,10 +17124,10 @@
         <v>73</v>
       </c>
       <c r="F558" s="3"/>
-      <c r="G558" s="47"/>
+      <c r="G558" s="44"/>
       <c r="H558" s="3"/>
       <c r="I558" s="3"/>
-      <c r="J558" s="45" t="s">
+      <c r="J558" s="42" t="s">
         <v>69</v>
       </c>
       <c r="K558" s="3" t="s">
@@ -17198,17 +17197,17 @@
       </c>
     </row>
     <row r="561" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A561" s="31"/>
-      <c r="B561" s="32"/>
-      <c r="C561" s="32"/>
-      <c r="D561" s="32"/>
-      <c r="E561" s="32"/>
-      <c r="F561" s="32"/>
-      <c r="G561" s="32"/>
-      <c r="H561" s="32"/>
-      <c r="I561" s="32"/>
-      <c r="J561" s="32"/>
-      <c r="K561" s="33"/>
+      <c r="A561" s="45"/>
+      <c r="B561" s="46"/>
+      <c r="C561" s="46"/>
+      <c r="D561" s="46"/>
+      <c r="E561" s="46"/>
+      <c r="F561" s="46"/>
+      <c r="G561" s="46"/>
+      <c r="H561" s="46"/>
+      <c r="I561" s="46"/>
+      <c r="J561" s="46"/>
+      <c r="K561" s="47"/>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="2" t="s">
@@ -17389,17 +17388,17 @@
       </c>
     </row>
     <row r="568" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A568" s="31"/>
-      <c r="B568" s="32"/>
-      <c r="C568" s="32"/>
-      <c r="D568" s="32"/>
-      <c r="E568" s="32"/>
-      <c r="F568" s="32"/>
-      <c r="G568" s="32"/>
-      <c r="H568" s="32"/>
-      <c r="I568" s="32"/>
-      <c r="J568" s="32"/>
-      <c r="K568" s="33"/>
+      <c r="A568" s="45"/>
+      <c r="B568" s="46"/>
+      <c r="C568" s="46"/>
+      <c r="D568" s="46"/>
+      <c r="E568" s="46"/>
+      <c r="F568" s="46"/>
+      <c r="G568" s="46"/>
+      <c r="H568" s="46"/>
+      <c r="I568" s="46"/>
+      <c r="J568" s="46"/>
+      <c r="K568" s="47"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="2" t="s">
@@ -17577,17 +17576,17 @@
       </c>
     </row>
     <row r="575" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A575" s="31"/>
-      <c r="B575" s="32"/>
-      <c r="C575" s="32"/>
-      <c r="D575" s="32"/>
-      <c r="E575" s="32"/>
-      <c r="F575" s="32"/>
-      <c r="G575" s="32"/>
-      <c r="H575" s="32"/>
-      <c r="I575" s="32"/>
-      <c r="J575" s="32"/>
-      <c r="K575" s="33"/>
+      <c r="A575" s="45"/>
+      <c r="B575" s="46"/>
+      <c r="C575" s="46"/>
+      <c r="D575" s="46"/>
+      <c r="E575" s="46"/>
+      <c r="F575" s="46"/>
+      <c r="G575" s="46"/>
+      <c r="H575" s="46"/>
+      <c r="I575" s="46"/>
+      <c r="J575" s="46"/>
+      <c r="K575" s="47"/>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="2" t="s">
@@ -17750,17 +17749,17 @@
       <c r="K581" s="3"/>
     </row>
     <row r="582" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A582" s="31"/>
-      <c r="B582" s="32"/>
-      <c r="C582" s="32"/>
-      <c r="D582" s="32"/>
-      <c r="E582" s="32"/>
-      <c r="F582" s="32"/>
-      <c r="G582" s="32"/>
-      <c r="H582" s="32"/>
-      <c r="I582" s="32"/>
-      <c r="J582" s="32"/>
-      <c r="K582" s="33"/>
+      <c r="A582" s="45"/>
+      <c r="B582" s="46"/>
+      <c r="C582" s="46"/>
+      <c r="D582" s="46"/>
+      <c r="E582" s="46"/>
+      <c r="F582" s="46"/>
+      <c r="G582" s="46"/>
+      <c r="H582" s="46"/>
+      <c r="I582" s="46"/>
+      <c r="J582" s="46"/>
+      <c r="K582" s="47"/>
     </row>
     <row r="583" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
@@ -17769,25 +17768,25 @@
       <c r="B583" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C583" s="34" t="s">
+      <c r="C583" s="31" t="s">
         <v>453</v>
       </c>
-      <c r="D583" s="34"/>
-      <c r="E583" s="34" t="s">
+      <c r="D583" s="31"/>
+      <c r="E583" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="F583" s="34"/>
-      <c r="G583" s="34"/>
-      <c r="H583" s="34" t="s">
+      <c r="F583" s="31"/>
+      <c r="G583" s="31"/>
+      <c r="H583" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="I583" s="34" t="s">
+      <c r="I583" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="J583" s="34" t="s">
+      <c r="J583" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="K583" s="34"/>
+      <c r="K583" s="31"/>
     </row>
     <row r="584" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A584" s="2" t="s">
@@ -17796,23 +17795,23 @@
       <c r="B584" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C584" s="34" t="s">
+      <c r="C584" s="31" t="s">
         <v>453</v>
       </c>
-      <c r="D584" s="34"/>
-      <c r="E584" s="34" t="s">
+      <c r="D584" s="31"/>
+      <c r="E584" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="F584" s="34"/>
-      <c r="G584" s="34"/>
-      <c r="H584" s="34"/>
-      <c r="I584" s="34" t="s">
+      <c r="F584" s="31"/>
+      <c r="G584" s="31"/>
+      <c r="H584" s="31"/>
+      <c r="I584" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="J584" s="34" t="s">
+      <c r="J584" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="K584" s="34" t="s">
+      <c r="K584" s="31" t="s">
         <v>65</v>
       </c>
     </row>
@@ -17823,25 +17822,25 @@
       <c r="B585" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C585" s="34"/>
-      <c r="D585" s="34" t="s">
+      <c r="C585" s="31"/>
+      <c r="D585" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="E585" s="34" t="s">
+      <c r="E585" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="F585" s="39" t="s">
+      <c r="F585" s="36" t="s">
         <v>516</v>
       </c>
-      <c r="G585" s="34"/>
-      <c r="H585" s="34" t="s">
+      <c r="G585" s="31"/>
+      <c r="H585" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="I585" s="34"/>
-      <c r="J585" s="34" t="s">
+      <c r="I585" s="31"/>
+      <c r="J585" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="K585" s="34" t="s">
+      <c r="K585" s="31" t="s">
         <v>65</v>
       </c>
     </row>
@@ -17852,25 +17851,25 @@
       <c r="B586" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C586" s="34"/>
-      <c r="D586" s="34"/>
-      <c r="E586" s="34" t="s">
+      <c r="C586" s="31"/>
+      <c r="D586" s="31"/>
+      <c r="E586" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="F586" s="34"/>
-      <c r="G586" s="39" t="s">
+      <c r="F586" s="31"/>
+      <c r="G586" s="36" t="s">
         <v>517</v>
       </c>
-      <c r="H586" s="34" t="s">
+      <c r="H586" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I586" s="34" t="s">
+      <c r="I586" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="J586" s="34" t="s">
+      <c r="J586" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="K586" s="34"/>
+      <c r="K586" s="31"/>
     </row>
     <row r="587" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A587" s="2" t="s">
@@ -17879,27 +17878,27 @@
       <c r="B587" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C587" s="34" t="s">
+      <c r="C587" s="31" t="s">
         <v>453</v>
       </c>
-      <c r="D587" s="34"/>
-      <c r="E587" s="34" t="s">
+      <c r="D587" s="31"/>
+      <c r="E587" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="F587" s="34" t="s">
+      <c r="F587" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="G587" s="34"/>
-      <c r="H587" s="34" t="s">
+      <c r="G587" s="31"/>
+      <c r="H587" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="I587" s="34" t="s">
+      <c r="I587" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="J587" s="34" t="s">
+      <c r="J587" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="K587" s="34"/>
+      <c r="K587" s="31"/>
     </row>
     <row r="588" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
@@ -17908,40 +17907,40 @@
       <c r="B588" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C588" s="34" t="s">
+      <c r="C588" s="31" t="s">
         <v>453</v>
       </c>
-      <c r="D588" s="34"/>
-      <c r="E588" s="34" t="s">
+      <c r="D588" s="31"/>
+      <c r="E588" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="F588" s="39" t="s">
+      <c r="F588" s="36" t="s">
         <v>518</v>
       </c>
-      <c r="G588" s="34"/>
-      <c r="H588" s="34" t="s">
+      <c r="G588" s="31"/>
+      <c r="H588" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="I588" s="34" t="s">
+      <c r="I588" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="J588" s="34" t="s">
+      <c r="J588" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="K588" s="34"/>
+      <c r="K588" s="31"/>
     </row>
     <row r="589" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A589" s="31"/>
-      <c r="B589" s="32"/>
-      <c r="C589" s="32"/>
-      <c r="D589" s="32"/>
-      <c r="E589" s="32"/>
-      <c r="F589" s="32"/>
-      <c r="G589" s="32"/>
-      <c r="H589" s="32"/>
-      <c r="I589" s="32"/>
-      <c r="J589" s="32"/>
-      <c r="K589" s="33"/>
+      <c r="A589" s="45"/>
+      <c r="B589" s="46"/>
+      <c r="C589" s="46"/>
+      <c r="D589" s="46"/>
+      <c r="E589" s="46"/>
+      <c r="F589" s="46"/>
+      <c r="G589" s="46"/>
+      <c r="H589" s="46"/>
+      <c r="I589" s="46"/>
+      <c r="J589" s="46"/>
+      <c r="K589" s="47"/>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="2" t="s">
@@ -18126,17 +18125,17 @@
       </c>
     </row>
     <row r="596" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A596" s="31"/>
-      <c r="B596" s="32"/>
-      <c r="C596" s="32"/>
-      <c r="D596" s="32"/>
-      <c r="E596" s="32"/>
-      <c r="F596" s="32"/>
-      <c r="G596" s="32"/>
-      <c r="H596" s="32"/>
-      <c r="I596" s="32"/>
-      <c r="J596" s="32"/>
-      <c r="K596" s="33"/>
+      <c r="A596" s="45"/>
+      <c r="B596" s="46"/>
+      <c r="C596" s="46"/>
+      <c r="D596" s="46"/>
+      <c r="E596" s="46"/>
+      <c r="F596" s="46"/>
+      <c r="G596" s="46"/>
+      <c r="H596" s="46"/>
+      <c r="I596" s="46"/>
+      <c r="J596" s="46"/>
+      <c r="K596" s="47"/>
     </row>
     <row r="597" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A597" s="2" t="s">
@@ -18345,69 +18344,12 @@
     </sortState>
   </autoFilter>
   <mergeCells count="82">
-    <mergeCell ref="A589:K589"/>
-    <mergeCell ref="A596:K596"/>
-    <mergeCell ref="A554:K554"/>
-    <mergeCell ref="A568:K568"/>
-    <mergeCell ref="A575:K575"/>
-    <mergeCell ref="A582:K582"/>
-    <mergeCell ref="A561:K561"/>
-    <mergeCell ref="A547:K547"/>
-    <mergeCell ref="A470:K470"/>
-    <mergeCell ref="A477:K477"/>
-    <mergeCell ref="A484:K484"/>
-    <mergeCell ref="A491:K491"/>
-    <mergeCell ref="A498:K498"/>
-    <mergeCell ref="A505:K505"/>
-    <mergeCell ref="A512:K512"/>
-    <mergeCell ref="A519:K519"/>
-    <mergeCell ref="A526:K526"/>
-    <mergeCell ref="A533:K533"/>
-    <mergeCell ref="A540:K540"/>
-    <mergeCell ref="A463:K463"/>
-    <mergeCell ref="A386:K386"/>
-    <mergeCell ref="A393:K393"/>
-    <mergeCell ref="A400:K400"/>
-    <mergeCell ref="A407:K407"/>
-    <mergeCell ref="A414:K414"/>
-    <mergeCell ref="A421:K421"/>
-    <mergeCell ref="A428:K428"/>
-    <mergeCell ref="A435:K435"/>
-    <mergeCell ref="A442:K442"/>
-    <mergeCell ref="A449:K449"/>
-    <mergeCell ref="A456:K456"/>
-    <mergeCell ref="A379:K379"/>
-    <mergeCell ref="A302:K302"/>
-    <mergeCell ref="A309:K309"/>
-    <mergeCell ref="A316:K316"/>
-    <mergeCell ref="A323:K323"/>
-    <mergeCell ref="A330:K330"/>
-    <mergeCell ref="A337:K337"/>
-    <mergeCell ref="A344:K344"/>
-    <mergeCell ref="A351:K351"/>
-    <mergeCell ref="A358:K358"/>
-    <mergeCell ref="A365:K365"/>
-    <mergeCell ref="A372:K372"/>
-    <mergeCell ref="A295:K295"/>
-    <mergeCell ref="A225:K225"/>
-    <mergeCell ref="A246:K246"/>
-    <mergeCell ref="A253:K253"/>
-    <mergeCell ref="A260:K260"/>
-    <mergeCell ref="A267:K267"/>
-    <mergeCell ref="A274:K274"/>
-    <mergeCell ref="A281:K281"/>
-    <mergeCell ref="A288:K288"/>
-    <mergeCell ref="A218:K218"/>
-    <mergeCell ref="A141:K141"/>
-    <mergeCell ref="A148:K148"/>
-    <mergeCell ref="A155:K155"/>
-    <mergeCell ref="A162:K162"/>
-    <mergeCell ref="A169:K169"/>
-    <mergeCell ref="A176:K176"/>
-    <mergeCell ref="A183:K183"/>
-    <mergeCell ref="A197:K197"/>
-    <mergeCell ref="A204:K204"/>
-    <mergeCell ref="A211:K211"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A36:K36"/>
     <mergeCell ref="A134:K134"/>
     <mergeCell ref="A50:K50"/>
     <mergeCell ref="A57:K57"/>
@@ -18421,12 +18363,69 @@
     <mergeCell ref="A120:K120"/>
     <mergeCell ref="A127:K127"/>
     <mergeCell ref="A92:K92"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A218:K218"/>
+    <mergeCell ref="A141:K141"/>
+    <mergeCell ref="A148:K148"/>
+    <mergeCell ref="A155:K155"/>
+    <mergeCell ref="A162:K162"/>
+    <mergeCell ref="A169:K169"/>
+    <mergeCell ref="A176:K176"/>
+    <mergeCell ref="A183:K183"/>
+    <mergeCell ref="A197:K197"/>
+    <mergeCell ref="A204:K204"/>
+    <mergeCell ref="A211:K211"/>
+    <mergeCell ref="A295:K295"/>
+    <mergeCell ref="A225:K225"/>
+    <mergeCell ref="A246:K246"/>
+    <mergeCell ref="A253:K253"/>
+    <mergeCell ref="A260:K260"/>
+    <mergeCell ref="A267:K267"/>
+    <mergeCell ref="A274:K274"/>
+    <mergeCell ref="A281:K281"/>
+    <mergeCell ref="A288:K288"/>
+    <mergeCell ref="A379:K379"/>
+    <mergeCell ref="A302:K302"/>
+    <mergeCell ref="A309:K309"/>
+    <mergeCell ref="A316:K316"/>
+    <mergeCell ref="A323:K323"/>
+    <mergeCell ref="A330:K330"/>
+    <mergeCell ref="A337:K337"/>
+    <mergeCell ref="A344:K344"/>
+    <mergeCell ref="A351:K351"/>
+    <mergeCell ref="A358:K358"/>
+    <mergeCell ref="A365:K365"/>
+    <mergeCell ref="A372:K372"/>
+    <mergeCell ref="A463:K463"/>
+    <mergeCell ref="A386:K386"/>
+    <mergeCell ref="A393:K393"/>
+    <mergeCell ref="A400:K400"/>
+    <mergeCell ref="A407:K407"/>
+    <mergeCell ref="A414:K414"/>
+    <mergeCell ref="A421:K421"/>
+    <mergeCell ref="A428:K428"/>
+    <mergeCell ref="A435:K435"/>
+    <mergeCell ref="A442:K442"/>
+    <mergeCell ref="A449:K449"/>
+    <mergeCell ref="A456:K456"/>
+    <mergeCell ref="A547:K547"/>
+    <mergeCell ref="A470:K470"/>
+    <mergeCell ref="A477:K477"/>
+    <mergeCell ref="A484:K484"/>
+    <mergeCell ref="A491:K491"/>
+    <mergeCell ref="A498:K498"/>
+    <mergeCell ref="A505:K505"/>
+    <mergeCell ref="A512:K512"/>
+    <mergeCell ref="A519:K519"/>
+    <mergeCell ref="A526:K526"/>
+    <mergeCell ref="A533:K533"/>
+    <mergeCell ref="A540:K540"/>
+    <mergeCell ref="A589:K589"/>
+    <mergeCell ref="A596:K596"/>
+    <mergeCell ref="A554:K554"/>
+    <mergeCell ref="A568:K568"/>
+    <mergeCell ref="A575:K575"/>
+    <mergeCell ref="A582:K582"/>
+    <mergeCell ref="A561:K561"/>
   </mergeCells>
   <pageMargins left="0.68" right="0.7" top="0.59" bottom="0.45" header="0.3" footer="0.5"/>
   <pageSetup scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/timetableNov25.xlsx
+++ b/timetableNov25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\.vscode\project_tt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD89374E-1F5B-4634-A5E2-D91E3797CCFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691D23C0-D209-42EA-B29D-C88B8CAABF16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8267" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8267" uniqueCount="532">
   <si>
     <t>tname</t>
   </si>
@@ -1594,6 +1594,45 @@
   </si>
   <si>
     <t>9G lib</t>
+  </si>
+  <si>
+    <t>KASHISH</t>
+  </si>
+  <si>
+    <t>VIR BHADRA</t>
+  </si>
+  <si>
+    <t>STUTI</t>
+  </si>
+  <si>
+    <t>YOGENDRA</t>
+  </si>
+  <si>
+    <t>VINEETA</t>
+  </si>
+  <si>
+    <t>TUSHAR</t>
+  </si>
+  <si>
+    <t>S.C.MISHRA</t>
+  </si>
+  <si>
+    <t>RUPALI</t>
+  </si>
+  <si>
+    <t>PRIYA PANDEY</t>
+  </si>
+  <si>
+    <t>POOJA</t>
+  </si>
+  <si>
+    <t>P.K.DUBEY</t>
+  </si>
+  <si>
+    <t>JYOTI</t>
+  </si>
+  <si>
+    <t>ANUJ DIXIT</t>
   </si>
 </sst>
 </file>
@@ -2267,10 +2306,10 @@
   <dimension ref="A1:K602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B228" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V248" sqref="V248"/>
+      <selection pane="bottomRight" activeCell="H215" sqref="H215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3820,7 +3859,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>312</v>
+        <v>531</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>12</v>
@@ -3851,7 +3890,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>312</v>
+        <v>531</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>13</v>
@@ -3882,7 +3921,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>312</v>
+        <v>531</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>14</v>
@@ -3911,7 +3950,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>312</v>
+        <v>531</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>15</v>
@@ -3940,7 +3979,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>312</v>
+        <v>531</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>16</v>
@@ -3967,7 +4006,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>312</v>
+        <v>531</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>17</v>
@@ -7548,7 +7587,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>335</v>
+        <v>530</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>12</v>
@@ -7579,7 +7618,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>335</v>
+        <v>530</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>13</v>
@@ -7610,7 +7649,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>335</v>
+        <v>530</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>14</v>
@@ -7641,7 +7680,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>335</v>
+        <v>530</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>15</v>
@@ -7670,7 +7709,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>335</v>
+        <v>530</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>16</v>
@@ -7701,7 +7740,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>335</v>
+        <v>530</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>17</v>
@@ -7930,7 +7969,7 @@
     </row>
     <row r="212" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>353</v>
+        <v>519</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>12</v>
@@ -7953,15 +7992,14 @@
     </row>
     <row r="213" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>353</v>
+        <v>519</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C213" s="36" t="s">
+      <c r="D213" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D213" s="31"/>
       <c r="E213" s="31" t="s">
         <v>220</v>
       </c>
@@ -7980,7 +8018,7 @@
     </row>
     <row r="214" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>353</v>
+        <v>519</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>14</v>
@@ -8009,7 +8047,7 @@
     </row>
     <row r="215" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>353</v>
+        <v>519</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>15</v>
@@ -8038,7 +8076,7 @@
     </row>
     <row r="216" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>353</v>
+        <v>519</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>16</v>
@@ -8067,7 +8105,7 @@
     </row>
     <row r="217" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>353</v>
+        <v>519</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>17</v>
@@ -11843,7 +11881,7 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>12</v>
@@ -11870,7 +11908,7 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>13</v>
@@ -11899,7 +11937,7 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>14</v>
@@ -11926,7 +11964,7 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>15</v>
@@ -11951,7 +11989,7 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>16</v>
@@ -11982,7 +12020,7 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>17</v>
@@ -12193,7 +12231,7 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>334</v>
+        <v>528</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>12</v>
@@ -12224,7 +12262,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>334</v>
+        <v>528</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>13</v>
@@ -12251,7 +12289,7 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>334</v>
+        <v>528</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>14</v>
@@ -12282,7 +12320,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>334</v>
+        <v>528</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>15</v>
@@ -12313,7 +12351,7 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>334</v>
+        <v>528</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>16</v>
@@ -12344,7 +12382,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>334</v>
+        <v>528</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>17</v>
@@ -12388,7 +12426,7 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>338</v>
+        <v>527</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>12</v>
@@ -12415,7 +12453,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>338</v>
+        <v>527</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>13</v>
@@ -12440,7 +12478,7 @@
     </row>
     <row r="382" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
-        <v>338</v>
+        <v>527</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>14</v>
@@ -12465,7 +12503,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>338</v>
+        <v>527</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>15</v>
@@ -12490,7 +12528,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>338</v>
+        <v>527</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>16</v>
@@ -12519,7 +12557,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>338</v>
+        <v>527</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>17</v>
@@ -14416,7 +14454,7 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
-        <v>328</v>
+        <v>526</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>12</v>
@@ -14443,7 +14481,7 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
-        <v>328</v>
+        <v>526</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>13</v>
@@ -14468,7 +14506,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
-        <v>328</v>
+        <v>526</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>14</v>
@@ -14493,7 +14531,7 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
-        <v>328</v>
+        <v>526</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>15</v>
@@ -14520,7 +14558,7 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
-        <v>328</v>
+        <v>526</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>16</v>
@@ -14545,7 +14583,7 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
-        <v>328</v>
+        <v>526</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>17</v>
@@ -14585,7 +14623,7 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
-        <v>311</v>
+        <v>525</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>12</v>
@@ -14614,7 +14652,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
-        <v>311</v>
+        <v>525</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>13</v>
@@ -14641,7 +14679,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
-        <v>311</v>
+        <v>525</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>14</v>
@@ -14663,7 +14701,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
-        <v>311</v>
+        <v>525</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>15</v>
@@ -14688,7 +14726,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
-        <v>311</v>
+        <v>525</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>16</v>
@@ -14713,7 +14751,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
-        <v>311</v>
+        <v>525</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>17</v>
@@ -16255,7 +16293,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
-        <v>295</v>
+        <v>521</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>12</v>
@@ -16282,7 +16320,7 @@
     </row>
     <row r="528" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A528" s="2" t="s">
-        <v>295</v>
+        <v>521</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>13</v>
@@ -16311,7 +16349,7 @@
     </row>
     <row r="529" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A529" s="2" t="s">
-        <v>295</v>
+        <v>521</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>14</v>
@@ -16340,7 +16378,7 @@
     </row>
     <row r="530" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A530" s="2" t="s">
-        <v>295</v>
+        <v>521</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>15</v>
@@ -16369,7 +16407,7 @@
     </row>
     <row r="531" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A531" s="2" t="s">
-        <v>295</v>
+        <v>521</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>16</v>
@@ -16398,7 +16436,7 @@
     </row>
     <row r="532" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A532" s="2" t="s">
-        <v>295</v>
+        <v>521</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>17</v>
@@ -16831,7 +16869,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>12</v>
@@ -16860,7 +16898,7 @@
     </row>
     <row r="549" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A549" s="2" t="s">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="B549" s="3" t="s">
         <v>13</v>
@@ -16889,7 +16927,7 @@
     </row>
     <row r="550" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A550" s="2" t="s">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>14</v>
@@ -16918,7 +16956,7 @@
     </row>
     <row r="551" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A551" s="2" t="s">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>15</v>
@@ -16949,7 +16987,7 @@
     </row>
     <row r="552" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A552" s="2" t="s">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>16</v>
@@ -16980,7 +17018,7 @@
     </row>
     <row r="553" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A553" s="2" t="s">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>17</v>
@@ -17402,7 +17440,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="2" t="s">
-        <v>327</v>
+        <v>523</v>
       </c>
       <c r="B569" s="3" t="s">
         <v>12</v>
@@ -17431,7 +17469,7 @@
     </row>
     <row r="570" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A570" s="2" t="s">
-        <v>327</v>
+        <v>523</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>13</v>
@@ -17460,7 +17498,7 @@
     </row>
     <row r="571" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A571" s="2" t="s">
-        <v>327</v>
+        <v>523</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>14</v>
@@ -17491,7 +17529,7 @@
     </row>
     <row r="572" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A572" s="2" t="s">
-        <v>327</v>
+        <v>523</v>
       </c>
       <c r="B572" s="3" t="s">
         <v>15</v>
@@ -17518,7 +17556,7 @@
     </row>
     <row r="573" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A573" s="2" t="s">
-        <v>327</v>
+        <v>523</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>16</v>
@@ -17549,7 +17587,7 @@
     </row>
     <row r="574" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A574" s="2" t="s">
-        <v>327</v>
+        <v>523</v>
       </c>
       <c r="B574" s="3" t="s">
         <v>17</v>
@@ -17763,7 +17801,7 @@
     </row>
     <row r="583" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
-        <v>351</v>
+        <v>520</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>12</v>
@@ -17790,7 +17828,7 @@
     </row>
     <row r="584" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A584" s="2" t="s">
-        <v>351</v>
+        <v>520</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>13</v>
@@ -17817,7 +17855,7 @@
     </row>
     <row r="585" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A585" s="2" t="s">
-        <v>351</v>
+        <v>520</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>14</v>
@@ -17846,7 +17884,7 @@
     </row>
     <row r="586" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
-        <v>351</v>
+        <v>520</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>15</v>
@@ -17873,7 +17911,7 @@
     </row>
     <row r="587" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A587" s="2" t="s">
-        <v>351</v>
+        <v>520</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>16</v>
@@ -17902,7 +17940,7 @@
     </row>
     <row r="588" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
-        <v>351</v>
+        <v>520</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>17</v>
@@ -18139,7 +18177,7 @@
     </row>
     <row r="597" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A597" s="2" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="B597" s="14" t="s">
         <v>12</v>
@@ -18168,7 +18206,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="2" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="B598" s="14" t="s">
         <v>13</v>
@@ -18197,7 +18235,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="2" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="B599" s="14" t="s">
         <v>14</v>
@@ -18226,7 +18264,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="2" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="B600" s="14" t="s">
         <v>15</v>
@@ -18257,7 +18295,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="2" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="B601" s="14" t="s">
         <v>16</v>
@@ -18286,7 +18324,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="2" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="B602" s="14" t="s">
         <v>17</v>
